--- a/jyx2/Assets/Mods/SAMPLE/Configs/场景.xlsx
+++ b/jyx2/Assets/Mods/SAMPLE/Configs/场景.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jynew\jyx2\Assets\Mods\SAMPLE\Configs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="16200" windowHeight="25005"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16200" windowHeight="25005"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="3" r:id="rId1"/>
@@ -233,14 +238,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="26">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -251,19 +250,19 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -272,358 +271,32 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -631,263 +304,21 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="53">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -906,65 +337,21 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="53">
+  <cellStyles count="5">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="普通" xfId="11"/>
-    <cellStyle name="百分比" xfId="12" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="13" builtinId="9"/>
-    <cellStyle name="普通 2" xfId="14"/>
-    <cellStyle name="注释" xfId="15" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="16" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="17" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="18" builtinId="11"/>
-    <cellStyle name="标题" xfId="19" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="20" builtinId="53"/>
-    <cellStyle name="普通 4" xfId="21"/>
-    <cellStyle name="标题 1" xfId="22" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="23" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="24" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="25" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="26" builtinId="44"/>
-    <cellStyle name="输出" xfId="27" builtinId="21"/>
-    <cellStyle name="计算" xfId="28" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="29" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="30" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="31" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="32" builtinId="24"/>
-    <cellStyle name="汇总" xfId="33" builtinId="25"/>
-    <cellStyle name="好" xfId="34" builtinId="26"/>
-    <cellStyle name="适中" xfId="35" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="36" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="37" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="38" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="39" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="40" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="41" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="42" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="43" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="44" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="45" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="46" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="47" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="48" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="49" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="50" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="51" builtinId="52"/>
-    <cellStyle name="普通 3" xfId="52"/>
+    <cellStyle name="普通" xfId="1"/>
+    <cellStyle name="普通 2" xfId="2"/>
+    <cellStyle name="普通 3" xfId="4"/>
+    <cellStyle name="普通 4" xfId="3"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1293,36 +680,36 @@
       <a:lstStyle/>
     </a:spDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD115"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="9.87610619469027" style="2" customWidth="1"/>
-    <col min="3" max="3" width="19.3185840707965" style="2" customWidth="1"/>
-    <col min="4" max="4" width="31.858407079646" customWidth="1"/>
+    <col min="2" max="2" width="9.875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="19.375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="31.875" customWidth="1"/>
     <col min="5" max="6" width="9" style="2"/>
-    <col min="7" max="7" width="11.1238938053097" style="2" customWidth="1"/>
-    <col min="8" max="8" width="20.1238938053097" style="2" customWidth="1"/>
+    <col min="7" max="7" width="11.125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="20.125" style="2" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="12.75" spans="1:8">
+    <row r="2" spans="1:47" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1348,7 +735,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:28">
+    <row r="3" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
@@ -1394,7 +781,7 @@
       <c r="AA3" s="3"/>
       <c r="AB3" s="3"/>
     </row>
-    <row r="4" spans="1:28">
+    <row r="4" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>0</v>
       </c>
@@ -1408,7 +795,7 @@
         <v>19</v>
       </c>
       <c r="E4" s="3">
-        <v>-1</v>
+        <v>15</v>
       </c>
       <c r="F4" s="3">
         <v>-1</v>
@@ -1440,7 +827,7 @@
       <c r="AA4" s="3"/>
       <c r="AB4" s="3"/>
     </row>
-    <row r="5" spans="1:47">
+    <row r="5" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>1</v>
       </c>
@@ -1503,7 +890,7 @@
       <c r="AT5" s="3"/>
       <c r="AU5" s="3"/>
     </row>
-    <row r="6" spans="1:47">
+    <row r="6" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>2</v>
       </c>
@@ -1566,7 +953,7 @@
       <c r="AT6" s="3"/>
       <c r="AU6" s="3"/>
     </row>
-    <row r="7" spans="1:47">
+    <row r="7" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>3</v>
       </c>
@@ -1629,7 +1016,7 @@
       <c r="AT7" s="3"/>
       <c r="AU7" s="3"/>
     </row>
-    <row r="8" spans="1:47">
+    <row r="8" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>4</v>
       </c>
@@ -1692,7 +1079,7 @@
       <c r="AT8" s="3"/>
       <c r="AU8" s="3"/>
     </row>
-    <row r="9" spans="1:47">
+    <row r="9" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>5</v>
       </c>
@@ -1755,7 +1142,7 @@
       <c r="AT9" s="3"/>
       <c r="AU9" s="3"/>
     </row>
-    <row r="10" spans="1:47">
+    <row r="10" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>6</v>
       </c>
@@ -1818,7 +1205,7 @@
       <c r="AT10" s="3"/>
       <c r="AU10" s="3"/>
     </row>
-    <row r="11" spans="1:47">
+    <row r="11" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>7</v>
       </c>
@@ -1881,7 +1268,7 @@
       <c r="AT11" s="3"/>
       <c r="AU11" s="3"/>
     </row>
-    <row r="12" spans="1:47">
+    <row r="12" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>8</v>
       </c>
@@ -1944,7 +1331,7 @@
       <c r="AT12" s="3"/>
       <c r="AU12" s="3"/>
     </row>
-    <row r="13" spans="1:47">
+    <row r="13" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>9</v>
       </c>
@@ -2007,7 +1394,7 @@
       <c r="AT13" s="3"/>
       <c r="AU13" s="3"/>
     </row>
-    <row r="14" spans="1:47">
+    <row r="14" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>10</v>
       </c>
@@ -2070,7 +1457,7 @@
       <c r="AT14" s="3"/>
       <c r="AU14" s="3"/>
     </row>
-    <row r="15" spans="1:47">
+    <row r="15" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>11</v>
       </c>
@@ -2133,7 +1520,7 @@
       <c r="AT15" s="3"/>
       <c r="AU15" s="3"/>
     </row>
-    <row r="16" spans="1:47">
+    <row r="16" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>12</v>
       </c>
@@ -2196,7 +1583,7 @@
       <c r="AT16" s="3"/>
       <c r="AU16" s="3"/>
     </row>
-    <row r="17" spans="1:47">
+    <row r="17" spans="1:16384" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>13</v>
       </c>
@@ -2259,7 +1646,7 @@
       <c r="AT17" s="3"/>
       <c r="AU17" s="3"/>
     </row>
-    <row r="18" customFormat="1" spans="1:16384">
+    <row r="18" spans="1:16384" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>1000</v>
       </c>
@@ -18661,7 +18048,7 @@
       <c r="XFC18" s="2"/>
       <c r="XFD18" s="2"/>
     </row>
-    <row r="19" spans="1:47">
+    <row r="19" spans="1:16384" x14ac:dyDescent="0.2">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -18710,7 +18097,7 @@
       <c r="AT19" s="3"/>
       <c r="AU19" s="3"/>
     </row>
-    <row r="20" spans="1:47">
+    <row r="20" spans="1:16384" x14ac:dyDescent="0.2">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -18759,7 +18146,7 @@
       <c r="AT20" s="3"/>
       <c r="AU20" s="3"/>
     </row>
-    <row r="21" spans="1:47">
+    <row r="21" spans="1:16384" x14ac:dyDescent="0.2">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -18808,7 +18195,7 @@
       <c r="AT21" s="3"/>
       <c r="AU21" s="3"/>
     </row>
-    <row r="22" spans="1:47">
+    <row r="22" spans="1:16384" x14ac:dyDescent="0.2">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -18857,7 +18244,7 @@
       <c r="AT22" s="3"/>
       <c r="AU22" s="3"/>
     </row>
-    <row r="23" spans="1:47">
+    <row r="23" spans="1:16384" x14ac:dyDescent="0.2">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -18906,7 +18293,7 @@
       <c r="AT23" s="3"/>
       <c r="AU23" s="3"/>
     </row>
-    <row r="24" spans="1:47">
+    <row r="24" spans="1:16384" x14ac:dyDescent="0.2">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -18955,7 +18342,7 @@
       <c r="AT24" s="3"/>
       <c r="AU24" s="3"/>
     </row>
-    <row r="25" spans="1:47">
+    <row r="25" spans="1:16384" x14ac:dyDescent="0.2">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -19004,7 +18391,7 @@
       <c r="AT25" s="3"/>
       <c r="AU25" s="3"/>
     </row>
-    <row r="26" spans="1:47">
+    <row r="26" spans="1:16384" x14ac:dyDescent="0.2">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -19053,7 +18440,7 @@
       <c r="AT26" s="3"/>
       <c r="AU26" s="3"/>
     </row>
-    <row r="27" spans="1:47">
+    <row r="27" spans="1:16384" x14ac:dyDescent="0.2">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -19102,7 +18489,7 @@
       <c r="AT27" s="3"/>
       <c r="AU27" s="3"/>
     </row>
-    <row r="28" spans="1:47">
+    <row r="28" spans="1:16384" x14ac:dyDescent="0.2">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -19151,7 +18538,7 @@
       <c r="AT28" s="3"/>
       <c r="AU28" s="3"/>
     </row>
-    <row r="29" spans="1:47">
+    <row r="29" spans="1:16384" x14ac:dyDescent="0.2">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -19200,7 +18587,7 @@
       <c r="AT29" s="3"/>
       <c r="AU29" s="3"/>
     </row>
-    <row r="30" spans="1:47">
+    <row r="30" spans="1:16384" x14ac:dyDescent="0.2">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -19249,7 +18636,7 @@
       <c r="AT30" s="3"/>
       <c r="AU30" s="3"/>
     </row>
-    <row r="31" spans="1:47">
+    <row r="31" spans="1:16384" x14ac:dyDescent="0.2">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -19298,7 +18685,7 @@
       <c r="AT31" s="3"/>
       <c r="AU31" s="3"/>
     </row>
-    <row r="32" spans="1:47">
+    <row r="32" spans="1:16384" x14ac:dyDescent="0.2">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -19347,7 +18734,7 @@
       <c r="AT32" s="3"/>
       <c r="AU32" s="3"/>
     </row>
-    <row r="33" spans="1:47">
+    <row r="33" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -19396,7 +18783,7 @@
       <c r="AT33" s="3"/>
       <c r="AU33" s="3"/>
     </row>
-    <row r="34" spans="1:47">
+    <row r="34" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -19445,7 +18832,7 @@
       <c r="AT34" s="3"/>
       <c r="AU34" s="3"/>
     </row>
-    <row r="35" spans="1:47">
+    <row r="35" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -19494,7 +18881,7 @@
       <c r="AT35" s="3"/>
       <c r="AU35" s="3"/>
     </row>
-    <row r="36" spans="1:47">
+    <row r="36" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -19543,7 +18930,7 @@
       <c r="AT36" s="3"/>
       <c r="AU36" s="3"/>
     </row>
-    <row r="37" spans="1:47">
+    <row r="37" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -19592,7 +18979,7 @@
       <c r="AT37" s="3"/>
       <c r="AU37" s="3"/>
     </row>
-    <row r="38" spans="1:47">
+    <row r="38" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -19641,7 +19028,7 @@
       <c r="AT38" s="3"/>
       <c r="AU38" s="3"/>
     </row>
-    <row r="39" spans="1:47">
+    <row r="39" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -19690,7 +19077,7 @@
       <c r="AT39" s="3"/>
       <c r="AU39" s="3"/>
     </row>
-    <row r="40" spans="1:47">
+    <row r="40" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -19739,7 +19126,7 @@
       <c r="AT40" s="3"/>
       <c r="AU40" s="3"/>
     </row>
-    <row r="41" spans="1:47">
+    <row r="41" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -19788,7 +19175,7 @@
       <c r="AT41" s="3"/>
       <c r="AU41" s="3"/>
     </row>
-    <row r="42" spans="1:47">
+    <row r="42" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -19837,7 +19224,7 @@
       <c r="AT42" s="3"/>
       <c r="AU42" s="3"/>
     </row>
-    <row r="43" spans="1:47">
+    <row r="43" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
@@ -19886,7 +19273,7 @@
       <c r="AT43" s="3"/>
       <c r="AU43" s="3"/>
     </row>
-    <row r="44" spans="1:47">
+    <row r="44" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
@@ -19935,7 +19322,7 @@
       <c r="AT44" s="3"/>
       <c r="AU44" s="3"/>
     </row>
-    <row r="45" spans="1:47">
+    <row r="45" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
@@ -19984,7 +19371,7 @@
       <c r="AT45" s="3"/>
       <c r="AU45" s="3"/>
     </row>
-    <row r="46" spans="1:47">
+    <row r="46" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -20033,7 +19420,7 @@
       <c r="AT46" s="3"/>
       <c r="AU46" s="3"/>
     </row>
-    <row r="47" spans="1:47">
+    <row r="47" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
@@ -20082,7 +19469,7 @@
       <c r="AT47" s="3"/>
       <c r="AU47" s="3"/>
     </row>
-    <row r="48" spans="1:47">
+    <row r="48" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
@@ -20131,7 +19518,7 @@
       <c r="AT48" s="3"/>
       <c r="AU48" s="3"/>
     </row>
-    <row r="49" spans="1:47">
+    <row r="49" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
@@ -20180,7 +19567,7 @@
       <c r="AT49" s="3"/>
       <c r="AU49" s="3"/>
     </row>
-    <row r="50" spans="1:47">
+    <row r="50" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
@@ -20229,7 +19616,7 @@
       <c r="AT50" s="3"/>
       <c r="AU50" s="3"/>
     </row>
-    <row r="51" spans="1:47">
+    <row r="51" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A51" s="3"/>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
@@ -20278,7 +19665,7 @@
       <c r="AT51" s="3"/>
       <c r="AU51" s="3"/>
     </row>
-    <row r="52" spans="1:47">
+    <row r="52" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
@@ -20327,7 +19714,7 @@
       <c r="AT52" s="3"/>
       <c r="AU52" s="3"/>
     </row>
-    <row r="53" spans="1:47">
+    <row r="53" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
@@ -20376,7 +19763,7 @@
       <c r="AT53" s="3"/>
       <c r="AU53" s="3"/>
     </row>
-    <row r="54" spans="1:47">
+    <row r="54" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
@@ -20425,7 +19812,7 @@
       <c r="AT54" s="3"/>
       <c r="AU54" s="3"/>
     </row>
-    <row r="55" spans="1:47">
+    <row r="55" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
@@ -20474,7 +19861,7 @@
       <c r="AT55" s="3"/>
       <c r="AU55" s="3"/>
     </row>
-    <row r="56" spans="1:47">
+    <row r="56" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
@@ -20523,7 +19910,7 @@
       <c r="AT56" s="3"/>
       <c r="AU56" s="3"/>
     </row>
-    <row r="57" spans="1:47">
+    <row r="57" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
@@ -20572,7 +19959,7 @@
       <c r="AT57" s="3"/>
       <c r="AU57" s="3"/>
     </row>
-    <row r="58" spans="1:47">
+    <row r="58" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
@@ -20621,7 +20008,7 @@
       <c r="AT58" s="3"/>
       <c r="AU58" s="3"/>
     </row>
-    <row r="59" spans="1:47">
+    <row r="59" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
@@ -20670,7 +20057,7 @@
       <c r="AT59" s="3"/>
       <c r="AU59" s="3"/>
     </row>
-    <row r="60" spans="1:47">
+    <row r="60" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
@@ -20719,7 +20106,7 @@
       <c r="AT60" s="3"/>
       <c r="AU60" s="3"/>
     </row>
-    <row r="61" spans="1:47">
+    <row r="61" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
@@ -20768,7 +20155,7 @@
       <c r="AT61" s="3"/>
       <c r="AU61" s="3"/>
     </row>
-    <row r="62" spans="1:47">
+    <row r="62" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A62" s="3"/>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
@@ -20817,7 +20204,7 @@
       <c r="AT62" s="3"/>
       <c r="AU62" s="3"/>
     </row>
-    <row r="63" spans="1:47">
+    <row r="63" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A63" s="3"/>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
@@ -20866,7 +20253,7 @@
       <c r="AT63" s="3"/>
       <c r="AU63" s="3"/>
     </row>
-    <row r="64" spans="1:47">
+    <row r="64" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
@@ -20915,7 +20302,7 @@
       <c r="AT64" s="3"/>
       <c r="AU64" s="3"/>
     </row>
-    <row r="65" spans="1:47">
+    <row r="65" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A65" s="3"/>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
@@ -20964,7 +20351,7 @@
       <c r="AT65" s="3"/>
       <c r="AU65" s="3"/>
     </row>
-    <row r="66" spans="1:47">
+    <row r="66" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
@@ -21013,7 +20400,7 @@
       <c r="AT66" s="3"/>
       <c r="AU66" s="3"/>
     </row>
-    <row r="67" spans="1:47">
+    <row r="67" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
@@ -21062,7 +20449,7 @@
       <c r="AT67" s="3"/>
       <c r="AU67" s="3"/>
     </row>
-    <row r="68" spans="1:47">
+    <row r="68" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A68" s="3"/>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
@@ -21111,7 +20498,7 @@
       <c r="AT68" s="3"/>
       <c r="AU68" s="3"/>
     </row>
-    <row r="69" spans="1:47">
+    <row r="69" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A69" s="3"/>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
@@ -21160,7 +20547,7 @@
       <c r="AT69" s="3"/>
       <c r="AU69" s="3"/>
     </row>
-    <row r="70" spans="1:47">
+    <row r="70" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
@@ -21209,7 +20596,7 @@
       <c r="AT70" s="3"/>
       <c r="AU70" s="3"/>
     </row>
-    <row r="71" spans="1:47">
+    <row r="71" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
@@ -21258,7 +20645,7 @@
       <c r="AT71" s="3"/>
       <c r="AU71" s="3"/>
     </row>
-    <row r="72" spans="1:47">
+    <row r="72" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
@@ -21307,7 +20694,7 @@
       <c r="AT72" s="3"/>
       <c r="AU72" s="3"/>
     </row>
-    <row r="73" spans="1:47">
+    <row r="73" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
@@ -21356,7 +20743,7 @@
       <c r="AT73" s="3"/>
       <c r="AU73" s="3"/>
     </row>
-    <row r="74" spans="1:47">
+    <row r="74" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
@@ -21405,7 +20792,7 @@
       <c r="AT74" s="3"/>
       <c r="AU74" s="3"/>
     </row>
-    <row r="75" spans="1:47">
+    <row r="75" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
@@ -21454,7 +20841,7 @@
       <c r="AT75" s="3"/>
       <c r="AU75" s="3"/>
     </row>
-    <row r="76" spans="1:47">
+    <row r="76" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
@@ -21503,7 +20890,7 @@
       <c r="AT76" s="3"/>
       <c r="AU76" s="3"/>
     </row>
-    <row r="77" spans="1:47">
+    <row r="77" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A77" s="3"/>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
@@ -21552,7 +20939,7 @@
       <c r="AT77" s="3"/>
       <c r="AU77" s="3"/>
     </row>
-    <row r="78" spans="1:47">
+    <row r="78" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
@@ -21601,7 +20988,7 @@
       <c r="AT78" s="3"/>
       <c r="AU78" s="3"/>
     </row>
-    <row r="79" spans="1:47">
+    <row r="79" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
@@ -21650,7 +21037,7 @@
       <c r="AT79" s="3"/>
       <c r="AU79" s="3"/>
     </row>
-    <row r="80" spans="1:47">
+    <row r="80" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
@@ -21699,7 +21086,7 @@
       <c r="AT80" s="3"/>
       <c r="AU80" s="3"/>
     </row>
-    <row r="81" spans="1:47">
+    <row r="81" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A81" s="3"/>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
@@ -21748,7 +21135,7 @@
       <c r="AT81" s="3"/>
       <c r="AU81" s="3"/>
     </row>
-    <row r="82" spans="1:47">
+    <row r="82" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
@@ -21797,7 +21184,7 @@
       <c r="AT82" s="3"/>
       <c r="AU82" s="3"/>
     </row>
-    <row r="83" spans="1:47">
+    <row r="83" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A83" s="3"/>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
@@ -21846,7 +21233,7 @@
       <c r="AT83" s="3"/>
       <c r="AU83" s="3"/>
     </row>
-    <row r="84" spans="1:47">
+    <row r="84" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
@@ -21895,7 +21282,7 @@
       <c r="AT84" s="3"/>
       <c r="AU84" s="3"/>
     </row>
-    <row r="85" spans="1:47">
+    <row r="85" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A85" s="3"/>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
@@ -21944,7 +21331,7 @@
       <c r="AT85" s="3"/>
       <c r="AU85" s="3"/>
     </row>
-    <row r="86" spans="1:47">
+    <row r="86" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
@@ -21993,7 +21380,7 @@
       <c r="AT86" s="3"/>
       <c r="AU86" s="3"/>
     </row>
-    <row r="87" spans="1:47">
+    <row r="87" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A87" s="3"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
@@ -22042,7 +21429,7 @@
       <c r="AT87" s="3"/>
       <c r="AU87" s="3"/>
     </row>
-    <row r="88" spans="1:47">
+    <row r="88" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A88" s="3"/>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
@@ -22091,7 +21478,7 @@
       <c r="AT88" s="3"/>
       <c r="AU88" s="3"/>
     </row>
-    <row r="89" spans="1:47">
+    <row r="89" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A89" s="3"/>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
@@ -22140,7 +21527,7 @@
       <c r="AT89" s="3"/>
       <c r="AU89" s="3"/>
     </row>
-    <row r="90" spans="1:47">
+    <row r="90" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A90" s="3"/>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
@@ -22189,7 +21576,7 @@
       <c r="AT90" s="3"/>
       <c r="AU90" s="3"/>
     </row>
-    <row r="91" spans="1:47">
+    <row r="91" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A91" s="3"/>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
@@ -22238,7 +21625,7 @@
       <c r="AT91" s="3"/>
       <c r="AU91" s="3"/>
     </row>
-    <row r="92" spans="1:47">
+    <row r="92" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A92" s="3"/>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
@@ -22287,7 +21674,7 @@
       <c r="AT92" s="3"/>
       <c r="AU92" s="3"/>
     </row>
-    <row r="93" spans="1:47">
+    <row r="93" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A93" s="3"/>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
@@ -22336,7 +21723,7 @@
       <c r="AT93" s="3"/>
       <c r="AU93" s="3"/>
     </row>
-    <row r="94" spans="1:47">
+    <row r="94" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A94" s="3"/>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
@@ -22385,7 +21772,7 @@
       <c r="AT94" s="3"/>
       <c r="AU94" s="3"/>
     </row>
-    <row r="95" spans="1:47">
+    <row r="95" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A95" s="3"/>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
@@ -22434,7 +21821,7 @@
       <c r="AT95" s="3"/>
       <c r="AU95" s="3"/>
     </row>
-    <row r="96" spans="1:47">
+    <row r="96" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A96" s="3"/>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
@@ -22483,7 +21870,7 @@
       <c r="AT96" s="3"/>
       <c r="AU96" s="3"/>
     </row>
-    <row r="97" spans="1:47">
+    <row r="97" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A97" s="3"/>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
@@ -22532,7 +21919,7 @@
       <c r="AT97" s="3"/>
       <c r="AU97" s="3"/>
     </row>
-    <row r="98" spans="1:47">
+    <row r="98" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A98" s="3"/>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
@@ -22581,7 +21968,7 @@
       <c r="AT98" s="3"/>
       <c r="AU98" s="3"/>
     </row>
-    <row r="99" spans="1:47">
+    <row r="99" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A99" s="3"/>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
@@ -22630,7 +22017,7 @@
       <c r="AT99" s="3"/>
       <c r="AU99" s="3"/>
     </row>
-    <row r="100" spans="1:47">
+    <row r="100" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A100" s="3"/>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
@@ -22679,7 +22066,7 @@
       <c r="AT100" s="3"/>
       <c r="AU100" s="3"/>
     </row>
-    <row r="101" spans="1:47">
+    <row r="101" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A101" s="3"/>
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
@@ -22728,7 +22115,7 @@
       <c r="AT101" s="3"/>
       <c r="AU101" s="3"/>
     </row>
-    <row r="102" spans="1:47">
+    <row r="102" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A102" s="3"/>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
@@ -22777,7 +22164,7 @@
       <c r="AT102" s="3"/>
       <c r="AU102" s="3"/>
     </row>
-    <row r="103" spans="1:47">
+    <row r="103" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A103" s="3"/>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
@@ -22826,7 +22213,7 @@
       <c r="AT103" s="3"/>
       <c r="AU103" s="3"/>
     </row>
-    <row r="104" spans="1:47">
+    <row r="104" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A104" s="3"/>
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
@@ -22875,7 +22262,7 @@
       <c r="AT104" s="3"/>
       <c r="AU104" s="3"/>
     </row>
-    <row r="105" spans="1:47">
+    <row r="105" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A105" s="3"/>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
@@ -22924,7 +22311,7 @@
       <c r="AT105" s="3"/>
       <c r="AU105" s="3"/>
     </row>
-    <row r="106" spans="1:47">
+    <row r="106" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A106" s="3"/>
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
@@ -22973,7 +22360,7 @@
       <c r="AT106" s="3"/>
       <c r="AU106" s="3"/>
     </row>
-    <row r="107" spans="1:47">
+    <row r="107" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A107" s="3"/>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
@@ -23022,7 +22409,7 @@
       <c r="AT107" s="3"/>
       <c r="AU107" s="3"/>
     </row>
-    <row r="108" spans="1:47">
+    <row r="108" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A108" s="3"/>
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
@@ -23071,7 +22458,7 @@
       <c r="AT108" s="3"/>
       <c r="AU108" s="3"/>
     </row>
-    <row r="109" spans="1:47">
+    <row r="109" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A109" s="3"/>
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
@@ -23120,7 +22507,7 @@
       <c r="AT109" s="3"/>
       <c r="AU109" s="3"/>
     </row>
-    <row r="110" spans="1:47">
+    <row r="110" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A110" s="3"/>
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
@@ -23169,7 +22556,7 @@
       <c r="AT110" s="3"/>
       <c r="AU110" s="3"/>
     </row>
-    <row r="111" spans="1:47">
+    <row r="111" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A111" s="3"/>
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
@@ -23218,7 +22605,7 @@
       <c r="AT111" s="3"/>
       <c r="AU111" s="3"/>
     </row>
-    <row r="112" spans="1:47">
+    <row r="112" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A112" s="3"/>
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
@@ -23267,7 +22654,7 @@
       <c r="AT112" s="3"/>
       <c r="AU112" s="3"/>
     </row>
-    <row r="113" spans="1:47">
+    <row r="113" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A113" s="3"/>
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
@@ -23316,7 +22703,7 @@
       <c r="AT113" s="3"/>
       <c r="AU113" s="3"/>
     </row>
-    <row r="114" spans="1:47">
+    <row r="114" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A114" s="3"/>
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
@@ -23365,7 +22752,7 @@
       <c r="AT114" s="3"/>
       <c r="AU114" s="3"/>
     </row>
-    <row r="115" spans="1:47">
+    <row r="115" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A115" s="3"/>
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
@@ -23415,8 +22802,8 @@
       <c r="AU115" s="3"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/jyx2/Assets/Mods/SAMPLE/Configs/场景.xlsx
+++ b/jyx2/Assets/Mods/SAMPLE/Configs/场景.xlsx
@@ -143,9 +143,6 @@
     <t>莫桥山庄</t>
   </si>
   <si>
-    <t>01_moqiaoshanzhuang</t>
-  </si>
-  <si>
     <t>万烛书苑</t>
   </si>
   <si>
@@ -233,6 +230,10 @@
   </si>
   <si>
     <t>WORLDMAP</t>
+  </si>
+  <si>
+    <t>01_moqiaoshanzhuang</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -689,7 +690,7 @@
   <dimension ref="A1:XFD115"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -835,7 +836,7 @@
         <v>21</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>19</v>
@@ -895,10 +896,10 @@
         <v>2</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>19</v>
@@ -958,10 +959,10 @@
         <v>3</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>19</v>
@@ -1021,10 +1022,10 @@
         <v>4</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>19</v>
@@ -1084,10 +1085,10 @@
         <v>5</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>19</v>
@@ -1147,10 +1148,10 @@
         <v>6</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>19</v>
@@ -1210,10 +1211,10 @@
         <v>7</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>19</v>
@@ -1273,10 +1274,10 @@
         <v>8</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>19</v>
@@ -1336,10 +1337,10 @@
         <v>9</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>19</v>
@@ -1399,10 +1400,10 @@
         <v>10</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>19</v>
@@ -1462,10 +1463,10 @@
         <v>11</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>19</v>
@@ -1525,10 +1526,10 @@
         <v>12</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>19</v>
@@ -1588,10 +1589,10 @@
         <v>13</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>19</v>
@@ -1651,10 +1652,10 @@
         <v>1000</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D18" s="6">
         <v>-1</v>
@@ -1669,7 +1670,7 @@
         <v>0</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>

--- a/jyx2/Assets/Mods/SAMPLE/Configs/场景.xlsx
+++ b/jyx2/Assets/Mods/SAMPLE/Configs/场景.xlsx
@@ -690,7 +690,7 @@
   <dimension ref="A1:XFD115"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -842,7 +842,7 @@
         <v>19</v>
       </c>
       <c r="E5" s="3">
-        <v>-1</v>
+        <v>21</v>
       </c>
       <c r="F5" s="3">
         <v>-1</v>

--- a/jyx2/Assets/Mods/SAMPLE/Configs/场景.xlsx
+++ b/jyx2/Assets/Mods/SAMPLE/Configs/场景.xlsx
@@ -690,7 +690,7 @@
   <dimension ref="A1:XFD115"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -905,7 +905,7 @@
         <v>19</v>
       </c>
       <c r="E6" s="3">
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="F6" s="3">
         <v>-1</v>

--- a/jyx2/Assets/Mods/SAMPLE/Configs/场景.xlsx
+++ b/jyx2/Assets/Mods/SAMPLE/Configs/场景.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jynew\jyx2\Assets\Mods\SAMPLE\Configs\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16200" windowHeight="25005"/>
+    <workbookView windowWidth="16200" windowHeight="25005"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="3" r:id="rId1"/>
@@ -143,6 +138,9 @@
     <t>莫桥山庄</t>
   </si>
   <si>
+    <t>01_moqiaoshanzhuang</t>
+  </si>
+  <si>
     <t>万烛书苑</t>
   </si>
   <si>
@@ -215,6 +213,18 @@
     <t>13_yelanggu</t>
   </si>
   <si>
+    <t>Leave:1000,Leave2:14</t>
+  </si>
+  <si>
+    <t>野狼洞</t>
+  </si>
+  <si>
+    <t>14_yelangdong</t>
+  </si>
+  <si>
+    <t>Leave:13</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -231,32 +241,18 @@
   <si>
     <t>WORLDMAP</t>
   </si>
-  <si>
-    <t>01_moqiaoshanzhuang</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>野狼洞</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Leave:13</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Leave:1000,Leave2:14</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>14_yelangdong</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -267,19 +263,19 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
@@ -288,32 +284,358 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -321,21 +643,263 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -354,21 +918,65 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="53">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="普通" xfId="1"/>
-    <cellStyle name="普通 2" xfId="2"/>
-    <cellStyle name="普通 3" xfId="4"/>
-    <cellStyle name="普通 4" xfId="3"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="普通" xfId="11"/>
+    <cellStyle name="百分比" xfId="12" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="13" builtinId="9"/>
+    <cellStyle name="普通 2" xfId="14"/>
+    <cellStyle name="注释" xfId="15" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="16" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="17" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="18" builtinId="11"/>
+    <cellStyle name="标题" xfId="19" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="20" builtinId="53"/>
+    <cellStyle name="普通 4" xfId="21"/>
+    <cellStyle name="标题 1" xfId="22" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="23" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="24" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="25" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="26" builtinId="44"/>
+    <cellStyle name="输出" xfId="27" builtinId="21"/>
+    <cellStyle name="计算" xfId="28" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="29" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="30" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="31" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="32" builtinId="24"/>
+    <cellStyle name="汇总" xfId="33" builtinId="25"/>
+    <cellStyle name="好" xfId="34" builtinId="26"/>
+    <cellStyle name="适中" xfId="35" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="36" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="37" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="38" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="39" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="40" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="41" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="42" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="43" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="44" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="45" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="46" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="47" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="48" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="49" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="50" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="51" builtinId="52"/>
+    <cellStyle name="普通 3" xfId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -697,36 +1305,36 @@
       <a:lstStyle/>
     </a:spDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:XFD116"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="9.875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="19.375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="31.875" customWidth="1"/>
+    <col min="2" max="2" width="9.87610619469027" style="2" customWidth="1"/>
+    <col min="3" max="3" width="19.3716814159292" style="2" customWidth="1"/>
+    <col min="4" max="4" width="31.8761061946903" customWidth="1"/>
     <col min="5" max="6" width="9" style="2"/>
-    <col min="7" max="7" width="11.125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="20.125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="11.1238938053097" style="2" customWidth="1"/>
+    <col min="8" max="8" width="20.1238938053097" style="2" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:47" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="2" s="1" customFormat="1" ht="12.75" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -752,7 +1360,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:28">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
@@ -798,7 +1406,7 @@
       <c r="AA3" s="3"/>
       <c r="AB3" s="3"/>
     </row>
-    <row r="4" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:28">
       <c r="A4" s="3">
         <v>0</v>
       </c>
@@ -844,7 +1452,7 @@
       <c r="AA4" s="3"/>
       <c r="AB4" s="3"/>
     </row>
-    <row r="5" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:47">
       <c r="A5" s="3">
         <v>1</v>
       </c>
@@ -852,7 +1460,7 @@
         <v>21</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>19</v>
@@ -907,15 +1515,15 @@
       <c r="AT5" s="3"/>
       <c r="AU5" s="3"/>
     </row>
-    <row r="6" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:47">
       <c r="A6" s="3">
         <v>2</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>19</v>
@@ -970,15 +1578,15 @@
       <c r="AT6" s="3"/>
       <c r="AU6" s="3"/>
     </row>
-    <row r="7" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:47">
       <c r="A7" s="3">
         <v>3</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>19</v>
@@ -1033,15 +1641,15 @@
       <c r="AT7" s="3"/>
       <c r="AU7" s="3"/>
     </row>
-    <row r="8" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:47">
       <c r="A8" s="3">
         <v>4</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>19</v>
@@ -1096,15 +1704,15 @@
       <c r="AT8" s="3"/>
       <c r="AU8" s="3"/>
     </row>
-    <row r="9" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:47">
       <c r="A9" s="3">
         <v>5</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>19</v>
@@ -1159,15 +1767,15 @@
       <c r="AT9" s="3"/>
       <c r="AU9" s="3"/>
     </row>
-    <row r="10" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:47">
       <c r="A10" s="3">
         <v>6</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>19</v>
@@ -1222,15 +1830,15 @@
       <c r="AT10" s="3"/>
       <c r="AU10" s="3"/>
     </row>
-    <row r="11" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:47">
       <c r="A11" s="3">
         <v>7</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>19</v>
@@ -1285,15 +1893,15 @@
       <c r="AT11" s="3"/>
       <c r="AU11" s="3"/>
     </row>
-    <row r="12" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:47">
       <c r="A12" s="3">
         <v>8</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>19</v>
@@ -1348,15 +1956,15 @@
       <c r="AT12" s="3"/>
       <c r="AU12" s="3"/>
     </row>
-    <row r="13" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:47">
       <c r="A13" s="3">
         <v>9</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>19</v>
@@ -1411,15 +2019,15 @@
       <c r="AT13" s="3"/>
       <c r="AU13" s="3"/>
     </row>
-    <row r="14" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:47">
       <c r="A14" s="3">
         <v>10</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>19</v>
@@ -1474,15 +2082,15 @@
       <c r="AT14" s="3"/>
       <c r="AU14" s="3"/>
     </row>
-    <row r="15" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:47">
       <c r="A15" s="3">
         <v>11</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>19</v>
@@ -1537,15 +2145,15 @@
       <c r="AT15" s="3"/>
       <c r="AU15" s="3"/>
     </row>
-    <row r="16" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:47">
       <c r="A16" s="3">
         <v>12</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>19</v>
@@ -1600,18 +2208,18 @@
       <c r="AT16" s="3"/>
       <c r="AU16" s="3"/>
     </row>
-    <row r="17" spans="1:16384" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:47">
       <c r="A17" s="3">
         <v>13</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E17" s="3">
         <v>-1</v>
@@ -1663,18 +2271,18 @@
       <c r="AT17" s="3"/>
       <c r="AU17" s="3"/>
     </row>
-    <row r="18" spans="1:16384" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:47">
       <c r="A18" s="3">
         <v>14</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E18" s="3">
         <v>-1</v>
@@ -1726,15 +2334,15 @@
       <c r="AT18" s="3"/>
       <c r="AU18" s="3"/>
     </row>
-    <row r="19" spans="1:16384" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" customFormat="1" spans="1:16384">
       <c r="A19" s="3">
         <v>1000</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D19" s="6">
         <v>-1</v>
@@ -1749,7 +2357,7 @@
         <v>0</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
@@ -18128,7 +18736,7 @@
       <c r="XFC19" s="2"/>
       <c r="XFD19" s="2"/>
     </row>
-    <row r="20" spans="1:16384" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:47">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -18177,7 +18785,7 @@
       <c r="AT20" s="3"/>
       <c r="AU20" s="3"/>
     </row>
-    <row r="21" spans="1:16384" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:47">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -18226,7 +18834,7 @@
       <c r="AT21" s="3"/>
       <c r="AU21" s="3"/>
     </row>
-    <row r="22" spans="1:16384" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:47">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -18275,7 +18883,7 @@
       <c r="AT22" s="3"/>
       <c r="AU22" s="3"/>
     </row>
-    <row r="23" spans="1:16384" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:47">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -18324,7 +18932,7 @@
       <c r="AT23" s="3"/>
       <c r="AU23" s="3"/>
     </row>
-    <row r="24" spans="1:16384" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:47">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -18373,7 +18981,7 @@
       <c r="AT24" s="3"/>
       <c r="AU24" s="3"/>
     </row>
-    <row r="25" spans="1:16384" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:47">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -18422,7 +19030,7 @@
       <c r="AT25" s="3"/>
       <c r="AU25" s="3"/>
     </row>
-    <row r="26" spans="1:16384" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:47">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -18471,7 +19079,7 @@
       <c r="AT26" s="3"/>
       <c r="AU26" s="3"/>
     </row>
-    <row r="27" spans="1:16384" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:47">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -18520,7 +19128,7 @@
       <c r="AT27" s="3"/>
       <c r="AU27" s="3"/>
     </row>
-    <row r="28" spans="1:16384" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:47">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -18569,7 +19177,7 @@
       <c r="AT28" s="3"/>
       <c r="AU28" s="3"/>
     </row>
-    <row r="29" spans="1:16384" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:47">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -18618,7 +19226,7 @@
       <c r="AT29" s="3"/>
       <c r="AU29" s="3"/>
     </row>
-    <row r="30" spans="1:16384" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:47">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -18667,7 +19275,7 @@
       <c r="AT30" s="3"/>
       <c r="AU30" s="3"/>
     </row>
-    <row r="31" spans="1:16384" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:47">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -18716,7 +19324,7 @@
       <c r="AT31" s="3"/>
       <c r="AU31" s="3"/>
     </row>
-    <row r="32" spans="1:16384" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:47">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -18765,7 +19373,7 @@
       <c r="AT32" s="3"/>
       <c r="AU32" s="3"/>
     </row>
-    <row r="33" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:47">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -18814,7 +19422,7 @@
       <c r="AT33" s="3"/>
       <c r="AU33" s="3"/>
     </row>
-    <row r="34" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:47">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -18863,7 +19471,7 @@
       <c r="AT34" s="3"/>
       <c r="AU34" s="3"/>
     </row>
-    <row r="35" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:47">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -18912,7 +19520,7 @@
       <c r="AT35" s="3"/>
       <c r="AU35" s="3"/>
     </row>
-    <row r="36" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:47">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -18961,7 +19569,7 @@
       <c r="AT36" s="3"/>
       <c r="AU36" s="3"/>
     </row>
-    <row r="37" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:47">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -19010,7 +19618,7 @@
       <c r="AT37" s="3"/>
       <c r="AU37" s="3"/>
     </row>
-    <row r="38" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:47">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -19059,7 +19667,7 @@
       <c r="AT38" s="3"/>
       <c r="AU38" s="3"/>
     </row>
-    <row r="39" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:47">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -19108,7 +19716,7 @@
       <c r="AT39" s="3"/>
       <c r="AU39" s="3"/>
     </row>
-    <row r="40" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:47">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -19157,7 +19765,7 @@
       <c r="AT40" s="3"/>
       <c r="AU40" s="3"/>
     </row>
-    <row r="41" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:47">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -19206,7 +19814,7 @@
       <c r="AT41" s="3"/>
       <c r="AU41" s="3"/>
     </row>
-    <row r="42" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:47">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -19255,7 +19863,7 @@
       <c r="AT42" s="3"/>
       <c r="AU42" s="3"/>
     </row>
-    <row r="43" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:47">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
@@ -19304,7 +19912,7 @@
       <c r="AT43" s="3"/>
       <c r="AU43" s="3"/>
     </row>
-    <row r="44" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:47">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
@@ -19353,7 +19961,7 @@
       <c r="AT44" s="3"/>
       <c r="AU44" s="3"/>
     </row>
-    <row r="45" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:47">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
@@ -19402,7 +20010,7 @@
       <c r="AT45" s="3"/>
       <c r="AU45" s="3"/>
     </row>
-    <row r="46" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:47">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -19451,7 +20059,7 @@
       <c r="AT46" s="3"/>
       <c r="AU46" s="3"/>
     </row>
-    <row r="47" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:47">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
@@ -19500,7 +20108,7 @@
       <c r="AT47" s="3"/>
       <c r="AU47" s="3"/>
     </row>
-    <row r="48" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:47">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
@@ -19549,7 +20157,7 @@
       <c r="AT48" s="3"/>
       <c r="AU48" s="3"/>
     </row>
-    <row r="49" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:47">
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
@@ -19598,7 +20206,7 @@
       <c r="AT49" s="3"/>
       <c r="AU49" s="3"/>
     </row>
-    <row r="50" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:47">
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
@@ -19647,7 +20255,7 @@
       <c r="AT50" s="3"/>
       <c r="AU50" s="3"/>
     </row>
-    <row r="51" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:47">
       <c r="A51" s="3"/>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
@@ -19696,7 +20304,7 @@
       <c r="AT51" s="3"/>
       <c r="AU51" s="3"/>
     </row>
-    <row r="52" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:47">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
@@ -19745,7 +20353,7 @@
       <c r="AT52" s="3"/>
       <c r="AU52" s="3"/>
     </row>
-    <row r="53" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:47">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
@@ -19794,7 +20402,7 @@
       <c r="AT53" s="3"/>
       <c r="AU53" s="3"/>
     </row>
-    <row r="54" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:47">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
@@ -19843,7 +20451,7 @@
       <c r="AT54" s="3"/>
       <c r="AU54" s="3"/>
     </row>
-    <row r="55" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:47">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
@@ -19892,7 +20500,7 @@
       <c r="AT55" s="3"/>
       <c r="AU55" s="3"/>
     </row>
-    <row r="56" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:47">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
@@ -19941,7 +20549,7 @@
       <c r="AT56" s="3"/>
       <c r="AU56" s="3"/>
     </row>
-    <row r="57" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:47">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
@@ -19990,7 +20598,7 @@
       <c r="AT57" s="3"/>
       <c r="AU57" s="3"/>
     </row>
-    <row r="58" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:47">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
@@ -20039,7 +20647,7 @@
       <c r="AT58" s="3"/>
       <c r="AU58" s="3"/>
     </row>
-    <row r="59" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:47">
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
@@ -20088,7 +20696,7 @@
       <c r="AT59" s="3"/>
       <c r="AU59" s="3"/>
     </row>
-    <row r="60" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:47">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
@@ -20137,7 +20745,7 @@
       <c r="AT60" s="3"/>
       <c r="AU60" s="3"/>
     </row>
-    <row r="61" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:47">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
@@ -20186,7 +20794,7 @@
       <c r="AT61" s="3"/>
       <c r="AU61" s="3"/>
     </row>
-    <row r="62" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:47">
       <c r="A62" s="3"/>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
@@ -20235,7 +20843,7 @@
       <c r="AT62" s="3"/>
       <c r="AU62" s="3"/>
     </row>
-    <row r="63" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:47">
       <c r="A63" s="3"/>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
@@ -20284,7 +20892,7 @@
       <c r="AT63" s="3"/>
       <c r="AU63" s="3"/>
     </row>
-    <row r="64" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:47">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
@@ -20333,7 +20941,7 @@
       <c r="AT64" s="3"/>
       <c r="AU64" s="3"/>
     </row>
-    <row r="65" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:47">
       <c r="A65" s="3"/>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
@@ -20382,7 +20990,7 @@
       <c r="AT65" s="3"/>
       <c r="AU65" s="3"/>
     </row>
-    <row r="66" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:47">
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
@@ -20431,7 +21039,7 @@
       <c r="AT66" s="3"/>
       <c r="AU66" s="3"/>
     </row>
-    <row r="67" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:47">
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
@@ -20480,7 +21088,7 @@
       <c r="AT67" s="3"/>
       <c r="AU67" s="3"/>
     </row>
-    <row r="68" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:47">
       <c r="A68" s="3"/>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
@@ -20529,7 +21137,7 @@
       <c r="AT68" s="3"/>
       <c r="AU68" s="3"/>
     </row>
-    <row r="69" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:47">
       <c r="A69" s="3"/>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
@@ -20578,7 +21186,7 @@
       <c r="AT69" s="3"/>
       <c r="AU69" s="3"/>
     </row>
-    <row r="70" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:47">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
@@ -20627,7 +21235,7 @@
       <c r="AT70" s="3"/>
       <c r="AU70" s="3"/>
     </row>
-    <row r="71" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:47">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
@@ -20676,7 +21284,7 @@
       <c r="AT71" s="3"/>
       <c r="AU71" s="3"/>
     </row>
-    <row r="72" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:47">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
@@ -20725,7 +21333,7 @@
       <c r="AT72" s="3"/>
       <c r="AU72" s="3"/>
     </row>
-    <row r="73" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:47">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
@@ -20774,7 +21382,7 @@
       <c r="AT73" s="3"/>
       <c r="AU73" s="3"/>
     </row>
-    <row r="74" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:47">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
@@ -20823,7 +21431,7 @@
       <c r="AT74" s="3"/>
       <c r="AU74" s="3"/>
     </row>
-    <row r="75" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:47">
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
@@ -20872,7 +21480,7 @@
       <c r="AT75" s="3"/>
       <c r="AU75" s="3"/>
     </row>
-    <row r="76" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:47">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
@@ -20921,7 +21529,7 @@
       <c r="AT76" s="3"/>
       <c r="AU76" s="3"/>
     </row>
-    <row r="77" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:47">
       <c r="A77" s="3"/>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
@@ -20970,7 +21578,7 @@
       <c r="AT77" s="3"/>
       <c r="AU77" s="3"/>
     </row>
-    <row r="78" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:47">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
@@ -21019,7 +21627,7 @@
       <c r="AT78" s="3"/>
       <c r="AU78" s="3"/>
     </row>
-    <row r="79" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:47">
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
@@ -21068,7 +21676,7 @@
       <c r="AT79" s="3"/>
       <c r="AU79" s="3"/>
     </row>
-    <row r="80" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:47">
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
@@ -21117,7 +21725,7 @@
       <c r="AT80" s="3"/>
       <c r="AU80" s="3"/>
     </row>
-    <row r="81" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:47">
       <c r="A81" s="3"/>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
@@ -21166,7 +21774,7 @@
       <c r="AT81" s="3"/>
       <c r="AU81" s="3"/>
     </row>
-    <row r="82" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:47">
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
@@ -21215,7 +21823,7 @@
       <c r="AT82" s="3"/>
       <c r="AU82" s="3"/>
     </row>
-    <row r="83" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:47">
       <c r="A83" s="3"/>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
@@ -21264,7 +21872,7 @@
       <c r="AT83" s="3"/>
       <c r="AU83" s="3"/>
     </row>
-    <row r="84" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:47">
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
@@ -21313,7 +21921,7 @@
       <c r="AT84" s="3"/>
       <c r="AU84" s="3"/>
     </row>
-    <row r="85" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:47">
       <c r="A85" s="3"/>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
@@ -21362,7 +21970,7 @@
       <c r="AT85" s="3"/>
       <c r="AU85" s="3"/>
     </row>
-    <row r="86" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:47">
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
@@ -21411,7 +22019,7 @@
       <c r="AT86" s="3"/>
       <c r="AU86" s="3"/>
     </row>
-    <row r="87" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:47">
       <c r="A87" s="3"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
@@ -21460,7 +22068,7 @@
       <c r="AT87" s="3"/>
       <c r="AU87" s="3"/>
     </row>
-    <row r="88" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:47">
       <c r="A88" s="3"/>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
@@ -21509,7 +22117,7 @@
       <c r="AT88" s="3"/>
       <c r="AU88" s="3"/>
     </row>
-    <row r="89" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:47">
       <c r="A89" s="3"/>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
@@ -21558,7 +22166,7 @@
       <c r="AT89" s="3"/>
       <c r="AU89" s="3"/>
     </row>
-    <row r="90" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:47">
       <c r="A90" s="3"/>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
@@ -21607,7 +22215,7 @@
       <c r="AT90" s="3"/>
       <c r="AU90" s="3"/>
     </row>
-    <row r="91" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:47">
       <c r="A91" s="3"/>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
@@ -21656,7 +22264,7 @@
       <c r="AT91" s="3"/>
       <c r="AU91" s="3"/>
     </row>
-    <row r="92" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:47">
       <c r="A92" s="3"/>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
@@ -21705,7 +22313,7 @@
       <c r="AT92" s="3"/>
       <c r="AU92" s="3"/>
     </row>
-    <row r="93" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:47">
       <c r="A93" s="3"/>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
@@ -21754,7 +22362,7 @@
       <c r="AT93" s="3"/>
       <c r="AU93" s="3"/>
     </row>
-    <row r="94" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:47">
       <c r="A94" s="3"/>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
@@ -21803,7 +22411,7 @@
       <c r="AT94" s="3"/>
       <c r="AU94" s="3"/>
     </row>
-    <row r="95" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:47">
       <c r="A95" s="3"/>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
@@ -21852,7 +22460,7 @@
       <c r="AT95" s="3"/>
       <c r="AU95" s="3"/>
     </row>
-    <row r="96" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:47">
       <c r="A96" s="3"/>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
@@ -21901,7 +22509,7 @@
       <c r="AT96" s="3"/>
       <c r="AU96" s="3"/>
     </row>
-    <row r="97" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:47">
       <c r="A97" s="3"/>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
@@ -21950,7 +22558,7 @@
       <c r="AT97" s="3"/>
       <c r="AU97" s="3"/>
     </row>
-    <row r="98" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:47">
       <c r="A98" s="3"/>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
@@ -21999,7 +22607,7 @@
       <c r="AT98" s="3"/>
       <c r="AU98" s="3"/>
     </row>
-    <row r="99" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:47">
       <c r="A99" s="3"/>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
@@ -22048,7 +22656,7 @@
       <c r="AT99" s="3"/>
       <c r="AU99" s="3"/>
     </row>
-    <row r="100" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:47">
       <c r="A100" s="3"/>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
@@ -22097,7 +22705,7 @@
       <c r="AT100" s="3"/>
       <c r="AU100" s="3"/>
     </row>
-    <row r="101" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:47">
       <c r="A101" s="3"/>
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
@@ -22146,7 +22754,7 @@
       <c r="AT101" s="3"/>
       <c r="AU101" s="3"/>
     </row>
-    <row r="102" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:47">
       <c r="A102" s="3"/>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
@@ -22195,7 +22803,7 @@
       <c r="AT102" s="3"/>
       <c r="AU102" s="3"/>
     </row>
-    <row r="103" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:47">
       <c r="A103" s="3"/>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
@@ -22244,7 +22852,7 @@
       <c r="AT103" s="3"/>
       <c r="AU103" s="3"/>
     </row>
-    <row r="104" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:47">
       <c r="A104" s="3"/>
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
@@ -22293,7 +22901,7 @@
       <c r="AT104" s="3"/>
       <c r="AU104" s="3"/>
     </row>
-    <row r="105" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:47">
       <c r="A105" s="3"/>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
@@ -22342,7 +22950,7 @@
       <c r="AT105" s="3"/>
       <c r="AU105" s="3"/>
     </row>
-    <row r="106" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:47">
       <c r="A106" s="3"/>
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
@@ -22391,7 +22999,7 @@
       <c r="AT106" s="3"/>
       <c r="AU106" s="3"/>
     </row>
-    <row r="107" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:47">
       <c r="A107" s="3"/>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
@@ -22440,7 +23048,7 @@
       <c r="AT107" s="3"/>
       <c r="AU107" s="3"/>
     </row>
-    <row r="108" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:47">
       <c r="A108" s="3"/>
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
@@ -22489,7 +23097,7 @@
       <c r="AT108" s="3"/>
       <c r="AU108" s="3"/>
     </row>
-    <row r="109" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:47">
       <c r="A109" s="3"/>
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
@@ -22538,7 +23146,7 @@
       <c r="AT109" s="3"/>
       <c r="AU109" s="3"/>
     </row>
-    <row r="110" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:47">
       <c r="A110" s="3"/>
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
@@ -22587,7 +23195,7 @@
       <c r="AT110" s="3"/>
       <c r="AU110" s="3"/>
     </row>
-    <row r="111" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:47">
       <c r="A111" s="3"/>
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
@@ -22636,7 +23244,7 @@
       <c r="AT111" s="3"/>
       <c r="AU111" s="3"/>
     </row>
-    <row r="112" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:47">
       <c r="A112" s="3"/>
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
@@ -22685,7 +23293,7 @@
       <c r="AT112" s="3"/>
       <c r="AU112" s="3"/>
     </row>
-    <row r="113" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:47">
       <c r="A113" s="3"/>
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
@@ -22734,7 +23342,7 @@
       <c r="AT113" s="3"/>
       <c r="AU113" s="3"/>
     </row>
-    <row r="114" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:47">
       <c r="A114" s="3"/>
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
@@ -22783,7 +23391,7 @@
       <c r="AT114" s="3"/>
       <c r="AU114" s="3"/>
     </row>
-    <row r="115" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:47">
       <c r="A115" s="3"/>
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
@@ -22832,7 +23440,7 @@
       <c r="AT115" s="3"/>
       <c r="AU115" s="3"/>
     </row>
-    <row r="116" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:47">
       <c r="A116" s="3"/>
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
@@ -22882,8 +23490,8 @@
       <c r="AU116" s="3"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/jyx2/Assets/Mods/SAMPLE/Configs/场景.xlsx
+++ b/jyx2/Assets/Mods/SAMPLE/Configs/场景.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jynew\jyx2\Assets\Mods\SAMPLE\Configs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="16200" windowHeight="25005"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16200" windowHeight="25005"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="3" r:id="rId1"/>
@@ -174,9 +179,6 @@
     <t>罂粟谷</t>
   </si>
   <si>
-    <t>07_yingsugu</t>
-  </si>
-  <si>
     <t>鸽子楼</t>
   </si>
   <si>
@@ -241,18 +243,16 @@
   <si>
     <t>WORLDMAP</t>
   </si>
+  <si>
+    <t>07_yingsugu</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="26">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -263,19 +263,19 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -284,358 +284,32 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -643,263 +317,21 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="53">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -918,65 +350,21 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="53">
+  <cellStyles count="5">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="普通" xfId="11"/>
-    <cellStyle name="百分比" xfId="12" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="13" builtinId="9"/>
-    <cellStyle name="普通 2" xfId="14"/>
-    <cellStyle name="注释" xfId="15" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="16" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="17" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="18" builtinId="11"/>
-    <cellStyle name="标题" xfId="19" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="20" builtinId="53"/>
-    <cellStyle name="普通 4" xfId="21"/>
-    <cellStyle name="标题 1" xfId="22" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="23" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="24" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="25" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="26" builtinId="44"/>
-    <cellStyle name="输出" xfId="27" builtinId="21"/>
-    <cellStyle name="计算" xfId="28" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="29" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="30" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="31" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="32" builtinId="24"/>
-    <cellStyle name="汇总" xfId="33" builtinId="25"/>
-    <cellStyle name="好" xfId="34" builtinId="26"/>
-    <cellStyle name="适中" xfId="35" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="36" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="37" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="38" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="39" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="40" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="41" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="42" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="43" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="44" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="45" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="46" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="47" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="48" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="49" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="50" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="51" builtinId="52"/>
-    <cellStyle name="普通 3" xfId="52"/>
+    <cellStyle name="普通" xfId="1"/>
+    <cellStyle name="普通 2" xfId="2"/>
+    <cellStyle name="普通 3" xfId="4"/>
+    <cellStyle name="普通 4" xfId="3"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1305,36 +693,36 @@
       <a:lstStyle/>
     </a:spDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD116"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="9.87610619469027" style="2" customWidth="1"/>
-    <col min="3" max="3" width="19.3716814159292" style="2" customWidth="1"/>
-    <col min="4" max="4" width="31.8761061946903" customWidth="1"/>
+    <col min="2" max="2" width="9.875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="19.375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="31.875" customWidth="1"/>
     <col min="5" max="6" width="9" style="2"/>
-    <col min="7" max="7" width="11.1238938053097" style="2" customWidth="1"/>
-    <col min="8" max="8" width="20.1238938053097" style="2" customWidth="1"/>
+    <col min="7" max="7" width="11.125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="20.125" style="2" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="12.75" spans="1:8">
+    <row r="2" spans="1:47" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1360,7 +748,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:28">
+    <row r="3" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
@@ -1406,7 +794,7 @@
       <c r="AA3" s="3"/>
       <c r="AB3" s="3"/>
     </row>
-    <row r="4" spans="1:28">
+    <row r="4" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>0</v>
       </c>
@@ -1452,7 +840,7 @@
       <c r="AA4" s="3"/>
       <c r="AB4" s="3"/>
     </row>
-    <row r="5" spans="1:47">
+    <row r="5" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>1</v>
       </c>
@@ -1515,7 +903,7 @@
       <c r="AT5" s="3"/>
       <c r="AU5" s="3"/>
     </row>
-    <row r="6" spans="1:47">
+    <row r="6" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>2</v>
       </c>
@@ -1578,7 +966,7 @@
       <c r="AT6" s="3"/>
       <c r="AU6" s="3"/>
     </row>
-    <row r="7" spans="1:47">
+    <row r="7" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>3</v>
       </c>
@@ -1641,7 +1029,7 @@
       <c r="AT7" s="3"/>
       <c r="AU7" s="3"/>
     </row>
-    <row r="8" spans="1:47">
+    <row r="8" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>4</v>
       </c>
@@ -1704,7 +1092,7 @@
       <c r="AT8" s="3"/>
       <c r="AU8" s="3"/>
     </row>
-    <row r="9" spans="1:47">
+    <row r="9" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>5</v>
       </c>
@@ -1767,7 +1155,7 @@
       <c r="AT9" s="3"/>
       <c r="AU9" s="3"/>
     </row>
-    <row r="10" spans="1:47">
+    <row r="10" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>6</v>
       </c>
@@ -1830,7 +1218,7 @@
       <c r="AT10" s="3"/>
       <c r="AU10" s="3"/>
     </row>
-    <row r="11" spans="1:47">
+    <row r="11" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>7</v>
       </c>
@@ -1838,7 +1226,7 @@
         <v>33</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>19</v>
@@ -1893,15 +1281,15 @@
       <c r="AT11" s="3"/>
       <c r="AU11" s="3"/>
     </row>
-    <row r="12" spans="1:47">
+    <row r="12" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>8</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>19</v>
@@ -1956,15 +1344,15 @@
       <c r="AT12" s="3"/>
       <c r="AU12" s="3"/>
     </row>
-    <row r="13" spans="1:47">
+    <row r="13" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>9</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>19</v>
@@ -2019,15 +1407,15 @@
       <c r="AT13" s="3"/>
       <c r="AU13" s="3"/>
     </row>
-    <row r="14" spans="1:47">
+    <row r="14" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>10</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>19</v>
@@ -2082,15 +1470,15 @@
       <c r="AT14" s="3"/>
       <c r="AU14" s="3"/>
     </row>
-    <row r="15" spans="1:47">
+    <row r="15" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>11</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>19</v>
@@ -2145,15 +1533,15 @@
       <c r="AT15" s="3"/>
       <c r="AU15" s="3"/>
     </row>
-    <row r="16" spans="1:47">
+    <row r="16" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>12</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>19</v>
@@ -2208,18 +1596,18 @@
       <c r="AT16" s="3"/>
       <c r="AU16" s="3"/>
     </row>
-    <row r="17" spans="1:47">
+    <row r="17" spans="1:16384" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>13</v>
       </c>
       <c r="B17" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="D17" s="3" t="s">
         <v>46</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>47</v>
       </c>
       <c r="E17" s="3">
         <v>-1</v>
@@ -2271,18 +1659,18 @@
       <c r="AT17" s="3"/>
       <c r="AU17" s="3"/>
     </row>
-    <row r="18" spans="1:47">
+    <row r="18" spans="1:16384" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>14</v>
       </c>
       <c r="B18" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="D18" s="3" t="s">
         <v>49</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>50</v>
       </c>
       <c r="E18" s="3">
         <v>-1</v>
@@ -2334,15 +1722,15 @@
       <c r="AT18" s="3"/>
       <c r="AU18" s="3"/>
     </row>
-    <row r="19" customFormat="1" spans="1:16384">
+    <row r="19" spans="1:16384" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>1000</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D19" s="6">
         <v>-1</v>
@@ -2357,7 +1745,7 @@
         <v>0</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
@@ -18736,7 +18124,7 @@
       <c r="XFC19" s="2"/>
       <c r="XFD19" s="2"/>
     </row>
-    <row r="20" spans="1:47">
+    <row r="20" spans="1:16384" x14ac:dyDescent="0.2">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -18785,7 +18173,7 @@
       <c r="AT20" s="3"/>
       <c r="AU20" s="3"/>
     </row>
-    <row r="21" spans="1:47">
+    <row r="21" spans="1:16384" x14ac:dyDescent="0.2">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -18834,7 +18222,7 @@
       <c r="AT21" s="3"/>
       <c r="AU21" s="3"/>
     </row>
-    <row r="22" spans="1:47">
+    <row r="22" spans="1:16384" x14ac:dyDescent="0.2">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -18883,7 +18271,7 @@
       <c r="AT22" s="3"/>
       <c r="AU22" s="3"/>
     </row>
-    <row r="23" spans="1:47">
+    <row r="23" spans="1:16384" x14ac:dyDescent="0.2">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -18932,7 +18320,7 @@
       <c r="AT23" s="3"/>
       <c r="AU23" s="3"/>
     </row>
-    <row r="24" spans="1:47">
+    <row r="24" spans="1:16384" x14ac:dyDescent="0.2">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -18981,7 +18369,7 @@
       <c r="AT24" s="3"/>
       <c r="AU24" s="3"/>
     </row>
-    <row r="25" spans="1:47">
+    <row r="25" spans="1:16384" x14ac:dyDescent="0.2">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -19030,7 +18418,7 @@
       <c r="AT25" s="3"/>
       <c r="AU25" s="3"/>
     </row>
-    <row r="26" spans="1:47">
+    <row r="26" spans="1:16384" x14ac:dyDescent="0.2">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -19079,7 +18467,7 @@
       <c r="AT26" s="3"/>
       <c r="AU26" s="3"/>
     </row>
-    <row r="27" spans="1:47">
+    <row r="27" spans="1:16384" x14ac:dyDescent="0.2">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -19128,7 +18516,7 @@
       <c r="AT27" s="3"/>
       <c r="AU27" s="3"/>
     </row>
-    <row r="28" spans="1:47">
+    <row r="28" spans="1:16384" x14ac:dyDescent="0.2">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -19177,7 +18565,7 @@
       <c r="AT28" s="3"/>
       <c r="AU28" s="3"/>
     </row>
-    <row r="29" spans="1:47">
+    <row r="29" spans="1:16384" x14ac:dyDescent="0.2">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -19226,7 +18614,7 @@
       <c r="AT29" s="3"/>
       <c r="AU29" s="3"/>
     </row>
-    <row r="30" spans="1:47">
+    <row r="30" spans="1:16384" x14ac:dyDescent="0.2">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -19275,7 +18663,7 @@
       <c r="AT30" s="3"/>
       <c r="AU30" s="3"/>
     </row>
-    <row r="31" spans="1:47">
+    <row r="31" spans="1:16384" x14ac:dyDescent="0.2">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -19324,7 +18712,7 @@
       <c r="AT31" s="3"/>
       <c r="AU31" s="3"/>
     </row>
-    <row r="32" spans="1:47">
+    <row r="32" spans="1:16384" x14ac:dyDescent="0.2">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -19373,7 +18761,7 @@
       <c r="AT32" s="3"/>
       <c r="AU32" s="3"/>
     </row>
-    <row r="33" spans="1:47">
+    <row r="33" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -19422,7 +18810,7 @@
       <c r="AT33" s="3"/>
       <c r="AU33" s="3"/>
     </row>
-    <row r="34" spans="1:47">
+    <row r="34" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -19471,7 +18859,7 @@
       <c r="AT34" s="3"/>
       <c r="AU34" s="3"/>
     </row>
-    <row r="35" spans="1:47">
+    <row r="35" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -19520,7 +18908,7 @@
       <c r="AT35" s="3"/>
       <c r="AU35" s="3"/>
     </row>
-    <row r="36" spans="1:47">
+    <row r="36" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -19569,7 +18957,7 @@
       <c r="AT36" s="3"/>
       <c r="AU36" s="3"/>
     </row>
-    <row r="37" spans="1:47">
+    <row r="37" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -19618,7 +19006,7 @@
       <c r="AT37" s="3"/>
       <c r="AU37" s="3"/>
     </row>
-    <row r="38" spans="1:47">
+    <row r="38" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -19667,7 +19055,7 @@
       <c r="AT38" s="3"/>
       <c r="AU38" s="3"/>
     </row>
-    <row r="39" spans="1:47">
+    <row r="39" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -19716,7 +19104,7 @@
       <c r="AT39" s="3"/>
       <c r="AU39" s="3"/>
     </row>
-    <row r="40" spans="1:47">
+    <row r="40" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -19765,7 +19153,7 @@
       <c r="AT40" s="3"/>
       <c r="AU40" s="3"/>
     </row>
-    <row r="41" spans="1:47">
+    <row r="41" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -19814,7 +19202,7 @@
       <c r="AT41" s="3"/>
       <c r="AU41" s="3"/>
     </row>
-    <row r="42" spans="1:47">
+    <row r="42" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -19863,7 +19251,7 @@
       <c r="AT42" s="3"/>
       <c r="AU42" s="3"/>
     </row>
-    <row r="43" spans="1:47">
+    <row r="43" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
@@ -19912,7 +19300,7 @@
       <c r="AT43" s="3"/>
       <c r="AU43" s="3"/>
     </row>
-    <row r="44" spans="1:47">
+    <row r="44" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
@@ -19961,7 +19349,7 @@
       <c r="AT44" s="3"/>
       <c r="AU44" s="3"/>
     </row>
-    <row r="45" spans="1:47">
+    <row r="45" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
@@ -20010,7 +19398,7 @@
       <c r="AT45" s="3"/>
       <c r="AU45" s="3"/>
     </row>
-    <row r="46" spans="1:47">
+    <row r="46" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -20059,7 +19447,7 @@
       <c r="AT46" s="3"/>
       <c r="AU46" s="3"/>
     </row>
-    <row r="47" spans="1:47">
+    <row r="47" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
@@ -20108,7 +19496,7 @@
       <c r="AT47" s="3"/>
       <c r="AU47" s="3"/>
     </row>
-    <row r="48" spans="1:47">
+    <row r="48" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
@@ -20157,7 +19545,7 @@
       <c r="AT48" s="3"/>
       <c r="AU48" s="3"/>
     </row>
-    <row r="49" spans="1:47">
+    <row r="49" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
@@ -20206,7 +19594,7 @@
       <c r="AT49" s="3"/>
       <c r="AU49" s="3"/>
     </row>
-    <row r="50" spans="1:47">
+    <row r="50" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
@@ -20255,7 +19643,7 @@
       <c r="AT50" s="3"/>
       <c r="AU50" s="3"/>
     </row>
-    <row r="51" spans="1:47">
+    <row r="51" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A51" s="3"/>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
@@ -20304,7 +19692,7 @@
       <c r="AT51" s="3"/>
       <c r="AU51" s="3"/>
     </row>
-    <row r="52" spans="1:47">
+    <row r="52" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
@@ -20353,7 +19741,7 @@
       <c r="AT52" s="3"/>
       <c r="AU52" s="3"/>
     </row>
-    <row r="53" spans="1:47">
+    <row r="53" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
@@ -20402,7 +19790,7 @@
       <c r="AT53" s="3"/>
       <c r="AU53" s="3"/>
     </row>
-    <row r="54" spans="1:47">
+    <row r="54" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
@@ -20451,7 +19839,7 @@
       <c r="AT54" s="3"/>
       <c r="AU54" s="3"/>
     </row>
-    <row r="55" spans="1:47">
+    <row r="55" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
@@ -20500,7 +19888,7 @@
       <c r="AT55" s="3"/>
       <c r="AU55" s="3"/>
     </row>
-    <row r="56" spans="1:47">
+    <row r="56" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
@@ -20549,7 +19937,7 @@
       <c r="AT56" s="3"/>
       <c r="AU56" s="3"/>
     </row>
-    <row r="57" spans="1:47">
+    <row r="57" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
@@ -20598,7 +19986,7 @@
       <c r="AT57" s="3"/>
       <c r="AU57" s="3"/>
     </row>
-    <row r="58" spans="1:47">
+    <row r="58" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
@@ -20647,7 +20035,7 @@
       <c r="AT58" s="3"/>
       <c r="AU58" s="3"/>
     </row>
-    <row r="59" spans="1:47">
+    <row r="59" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
@@ -20696,7 +20084,7 @@
       <c r="AT59" s="3"/>
       <c r="AU59" s="3"/>
     </row>
-    <row r="60" spans="1:47">
+    <row r="60" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
@@ -20745,7 +20133,7 @@
       <c r="AT60" s="3"/>
       <c r="AU60" s="3"/>
     </row>
-    <row r="61" spans="1:47">
+    <row r="61" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
@@ -20794,7 +20182,7 @@
       <c r="AT61" s="3"/>
       <c r="AU61" s="3"/>
     </row>
-    <row r="62" spans="1:47">
+    <row r="62" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A62" s="3"/>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
@@ -20843,7 +20231,7 @@
       <c r="AT62" s="3"/>
       <c r="AU62" s="3"/>
     </row>
-    <row r="63" spans="1:47">
+    <row r="63" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A63" s="3"/>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
@@ -20892,7 +20280,7 @@
       <c r="AT63" s="3"/>
       <c r="AU63" s="3"/>
     </row>
-    <row r="64" spans="1:47">
+    <row r="64" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
@@ -20941,7 +20329,7 @@
       <c r="AT64" s="3"/>
       <c r="AU64" s="3"/>
     </row>
-    <row r="65" spans="1:47">
+    <row r="65" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A65" s="3"/>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
@@ -20990,7 +20378,7 @@
       <c r="AT65" s="3"/>
       <c r="AU65" s="3"/>
     </row>
-    <row r="66" spans="1:47">
+    <row r="66" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
@@ -21039,7 +20427,7 @@
       <c r="AT66" s="3"/>
       <c r="AU66" s="3"/>
     </row>
-    <row r="67" spans="1:47">
+    <row r="67" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
@@ -21088,7 +20476,7 @@
       <c r="AT67" s="3"/>
       <c r="AU67" s="3"/>
     </row>
-    <row r="68" spans="1:47">
+    <row r="68" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A68" s="3"/>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
@@ -21137,7 +20525,7 @@
       <c r="AT68" s="3"/>
       <c r="AU68" s="3"/>
     </row>
-    <row r="69" spans="1:47">
+    <row r="69" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A69" s="3"/>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
@@ -21186,7 +20574,7 @@
       <c r="AT69" s="3"/>
       <c r="AU69" s="3"/>
     </row>
-    <row r="70" spans="1:47">
+    <row r="70" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
@@ -21235,7 +20623,7 @@
       <c r="AT70" s="3"/>
       <c r="AU70" s="3"/>
     </row>
-    <row r="71" spans="1:47">
+    <row r="71" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
@@ -21284,7 +20672,7 @@
       <c r="AT71" s="3"/>
       <c r="AU71" s="3"/>
     </row>
-    <row r="72" spans="1:47">
+    <row r="72" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
@@ -21333,7 +20721,7 @@
       <c r="AT72" s="3"/>
       <c r="AU72" s="3"/>
     </row>
-    <row r="73" spans="1:47">
+    <row r="73" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
@@ -21382,7 +20770,7 @@
       <c r="AT73" s="3"/>
       <c r="AU73" s="3"/>
     </row>
-    <row r="74" spans="1:47">
+    <row r="74" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
@@ -21431,7 +20819,7 @@
       <c r="AT74" s="3"/>
       <c r="AU74" s="3"/>
     </row>
-    <row r="75" spans="1:47">
+    <row r="75" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
@@ -21480,7 +20868,7 @@
       <c r="AT75" s="3"/>
       <c r="AU75" s="3"/>
     </row>
-    <row r="76" spans="1:47">
+    <row r="76" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
@@ -21529,7 +20917,7 @@
       <c r="AT76" s="3"/>
       <c r="AU76" s="3"/>
     </row>
-    <row r="77" spans="1:47">
+    <row r="77" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A77" s="3"/>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
@@ -21578,7 +20966,7 @@
       <c r="AT77" s="3"/>
       <c r="AU77" s="3"/>
     </row>
-    <row r="78" spans="1:47">
+    <row r="78" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
@@ -21627,7 +21015,7 @@
       <c r="AT78" s="3"/>
       <c r="AU78" s="3"/>
     </row>
-    <row r="79" spans="1:47">
+    <row r="79" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
@@ -21676,7 +21064,7 @@
       <c r="AT79" s="3"/>
       <c r="AU79" s="3"/>
     </row>
-    <row r="80" spans="1:47">
+    <row r="80" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
@@ -21725,7 +21113,7 @@
       <c r="AT80" s="3"/>
       <c r="AU80" s="3"/>
     </row>
-    <row r="81" spans="1:47">
+    <row r="81" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A81" s="3"/>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
@@ -21774,7 +21162,7 @@
       <c r="AT81" s="3"/>
       <c r="AU81" s="3"/>
     </row>
-    <row r="82" spans="1:47">
+    <row r="82" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
@@ -21823,7 +21211,7 @@
       <c r="AT82" s="3"/>
       <c r="AU82" s="3"/>
     </row>
-    <row r="83" spans="1:47">
+    <row r="83" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A83" s="3"/>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
@@ -21872,7 +21260,7 @@
       <c r="AT83" s="3"/>
       <c r="AU83" s="3"/>
     </row>
-    <row r="84" spans="1:47">
+    <row r="84" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
@@ -21921,7 +21309,7 @@
       <c r="AT84" s="3"/>
       <c r="AU84" s="3"/>
     </row>
-    <row r="85" spans="1:47">
+    <row r="85" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A85" s="3"/>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
@@ -21970,7 +21358,7 @@
       <c r="AT85" s="3"/>
       <c r="AU85" s="3"/>
     </row>
-    <row r="86" spans="1:47">
+    <row r="86" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
@@ -22019,7 +21407,7 @@
       <c r="AT86" s="3"/>
       <c r="AU86" s="3"/>
     </row>
-    <row r="87" spans="1:47">
+    <row r="87" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A87" s="3"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
@@ -22068,7 +21456,7 @@
       <c r="AT87" s="3"/>
       <c r="AU87" s="3"/>
     </row>
-    <row r="88" spans="1:47">
+    <row r="88" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A88" s="3"/>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
@@ -22117,7 +21505,7 @@
       <c r="AT88" s="3"/>
       <c r="AU88" s="3"/>
     </row>
-    <row r="89" spans="1:47">
+    <row r="89" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A89" s="3"/>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
@@ -22166,7 +21554,7 @@
       <c r="AT89" s="3"/>
       <c r="AU89" s="3"/>
     </row>
-    <row r="90" spans="1:47">
+    <row r="90" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A90" s="3"/>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
@@ -22215,7 +21603,7 @@
       <c r="AT90" s="3"/>
       <c r="AU90" s="3"/>
     </row>
-    <row r="91" spans="1:47">
+    <row r="91" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A91" s="3"/>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
@@ -22264,7 +21652,7 @@
       <c r="AT91" s="3"/>
       <c r="AU91" s="3"/>
     </row>
-    <row r="92" spans="1:47">
+    <row r="92" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A92" s="3"/>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
@@ -22313,7 +21701,7 @@
       <c r="AT92" s="3"/>
       <c r="AU92" s="3"/>
     </row>
-    <row r="93" spans="1:47">
+    <row r="93" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A93" s="3"/>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
@@ -22362,7 +21750,7 @@
       <c r="AT93" s="3"/>
       <c r="AU93" s="3"/>
     </row>
-    <row r="94" spans="1:47">
+    <row r="94" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A94" s="3"/>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
@@ -22411,7 +21799,7 @@
       <c r="AT94" s="3"/>
       <c r="AU94" s="3"/>
     </row>
-    <row r="95" spans="1:47">
+    <row r="95" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A95" s="3"/>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
@@ -22460,7 +21848,7 @@
       <c r="AT95" s="3"/>
       <c r="AU95" s="3"/>
     </row>
-    <row r="96" spans="1:47">
+    <row r="96" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A96" s="3"/>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
@@ -22509,7 +21897,7 @@
       <c r="AT96" s="3"/>
       <c r="AU96" s="3"/>
     </row>
-    <row r="97" spans="1:47">
+    <row r="97" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A97" s="3"/>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
@@ -22558,7 +21946,7 @@
       <c r="AT97" s="3"/>
       <c r="AU97" s="3"/>
     </row>
-    <row r="98" spans="1:47">
+    <row r="98" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A98" s="3"/>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
@@ -22607,7 +21995,7 @@
       <c r="AT98" s="3"/>
       <c r="AU98" s="3"/>
     </row>
-    <row r="99" spans="1:47">
+    <row r="99" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A99" s="3"/>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
@@ -22656,7 +22044,7 @@
       <c r="AT99" s="3"/>
       <c r="AU99" s="3"/>
     </row>
-    <row r="100" spans="1:47">
+    <row r="100" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A100" s="3"/>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
@@ -22705,7 +22093,7 @@
       <c r="AT100" s="3"/>
       <c r="AU100" s="3"/>
     </row>
-    <row r="101" spans="1:47">
+    <row r="101" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A101" s="3"/>
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
@@ -22754,7 +22142,7 @@
       <c r="AT101" s="3"/>
       <c r="AU101" s="3"/>
     </row>
-    <row r="102" spans="1:47">
+    <row r="102" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A102" s="3"/>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
@@ -22803,7 +22191,7 @@
       <c r="AT102" s="3"/>
       <c r="AU102" s="3"/>
     </row>
-    <row r="103" spans="1:47">
+    <row r="103" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A103" s="3"/>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
@@ -22852,7 +22240,7 @@
       <c r="AT103" s="3"/>
       <c r="AU103" s="3"/>
     </row>
-    <row r="104" spans="1:47">
+    <row r="104" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A104" s="3"/>
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
@@ -22901,7 +22289,7 @@
       <c r="AT104" s="3"/>
       <c r="AU104" s="3"/>
     </row>
-    <row r="105" spans="1:47">
+    <row r="105" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A105" s="3"/>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
@@ -22950,7 +22338,7 @@
       <c r="AT105" s="3"/>
       <c r="AU105" s="3"/>
     </row>
-    <row r="106" spans="1:47">
+    <row r="106" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A106" s="3"/>
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
@@ -22999,7 +22387,7 @@
       <c r="AT106" s="3"/>
       <c r="AU106" s="3"/>
     </row>
-    <row r="107" spans="1:47">
+    <row r="107" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A107" s="3"/>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
@@ -23048,7 +22436,7 @@
       <c r="AT107" s="3"/>
       <c r="AU107" s="3"/>
     </row>
-    <row r="108" spans="1:47">
+    <row r="108" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A108" s="3"/>
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
@@ -23097,7 +22485,7 @@
       <c r="AT108" s="3"/>
       <c r="AU108" s="3"/>
     </row>
-    <row r="109" spans="1:47">
+    <row r="109" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A109" s="3"/>
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
@@ -23146,7 +22534,7 @@
       <c r="AT109" s="3"/>
       <c r="AU109" s="3"/>
     </row>
-    <row r="110" spans="1:47">
+    <row r="110" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A110" s="3"/>
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
@@ -23195,7 +22583,7 @@
       <c r="AT110" s="3"/>
       <c r="AU110" s="3"/>
     </row>
-    <row r="111" spans="1:47">
+    <row r="111" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A111" s="3"/>
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
@@ -23244,7 +22632,7 @@
       <c r="AT111" s="3"/>
       <c r="AU111" s="3"/>
     </row>
-    <row r="112" spans="1:47">
+    <row r="112" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A112" s="3"/>
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
@@ -23293,7 +22681,7 @@
       <c r="AT112" s="3"/>
       <c r="AU112" s="3"/>
     </row>
-    <row r="113" spans="1:47">
+    <row r="113" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A113" s="3"/>
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
@@ -23342,7 +22730,7 @@
       <c r="AT113" s="3"/>
       <c r="AU113" s="3"/>
     </row>
-    <row r="114" spans="1:47">
+    <row r="114" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A114" s="3"/>
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
@@ -23391,7 +22779,7 @@
       <c r="AT114" s="3"/>
       <c r="AU114" s="3"/>
     </row>
-    <row r="115" spans="1:47">
+    <row r="115" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A115" s="3"/>
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
@@ -23440,7 +22828,7 @@
       <c r="AT115" s="3"/>
       <c r="AU115" s="3"/>
     </row>
-    <row r="116" spans="1:47">
+    <row r="116" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A116" s="3"/>
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
@@ -23490,8 +22878,8 @@
       <c r="AU116" s="3"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/jyx2/Assets/Mods/SAMPLE/Configs/场景.xlsx
+++ b/jyx2/Assets/Mods/SAMPLE/Configs/场景.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jynew\jyx2\Assets\Mods\SAMPLE\Configs\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16200" windowHeight="25005"/>
+    <workbookView windowWidth="12562" windowHeight="12307"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="3" r:id="rId1"/>
@@ -179,6 +174,9 @@
     <t>罂粟谷</t>
   </si>
   <si>
+    <t>07_yingsugu</t>
+  </si>
+  <si>
     <t>鸽子楼</t>
   </si>
   <si>
@@ -243,16 +241,18 @@
   <si>
     <t>WORLDMAP</t>
   </si>
-  <si>
-    <t>07_yingsugu</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -263,19 +263,19 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
@@ -284,32 +284,358 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -317,21 +643,263 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -350,21 +918,65 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="53">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="普通" xfId="1"/>
-    <cellStyle name="普通 2" xfId="2"/>
-    <cellStyle name="普通 3" xfId="4"/>
-    <cellStyle name="普通 4" xfId="3"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="普通" xfId="11"/>
+    <cellStyle name="百分比" xfId="12" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="13" builtinId="9"/>
+    <cellStyle name="普通 2" xfId="14"/>
+    <cellStyle name="注释" xfId="15" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="16" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="17" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="18" builtinId="11"/>
+    <cellStyle name="标题" xfId="19" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="20" builtinId="53"/>
+    <cellStyle name="普通 4" xfId="21"/>
+    <cellStyle name="标题 1" xfId="22" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="23" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="24" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="25" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="26" builtinId="44"/>
+    <cellStyle name="输出" xfId="27" builtinId="21"/>
+    <cellStyle name="计算" xfId="28" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="29" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="30" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="31" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="32" builtinId="24"/>
+    <cellStyle name="汇总" xfId="33" builtinId="25"/>
+    <cellStyle name="好" xfId="34" builtinId="26"/>
+    <cellStyle name="适中" xfId="35" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="36" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="37" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="38" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="39" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="40" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="41" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="42" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="43" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="44" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="45" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="46" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="47" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="48" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="49" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="50" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="51" builtinId="52"/>
+    <cellStyle name="普通 3" xfId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -693,36 +1305,36 @@
       <a:lstStyle/>
     </a:spDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:XFD116"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="9.875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="19.375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="31.875" customWidth="1"/>
+    <col min="2" max="2" width="9.87610619469027" style="2" customWidth="1"/>
+    <col min="3" max="3" width="19.3716814159292" style="2" customWidth="1"/>
+    <col min="4" max="4" width="31.8761061946903" customWidth="1"/>
     <col min="5" max="6" width="9" style="2"/>
-    <col min="7" max="7" width="11.125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="20.125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="11.1238938053097" style="2" customWidth="1"/>
+    <col min="8" max="8" width="20.1238938053097" style="2" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:47" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="2" s="1" customFormat="1" ht="12.75" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -748,7 +1360,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:28">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
@@ -794,7 +1406,7 @@
       <c r="AA3" s="3"/>
       <c r="AB3" s="3"/>
     </row>
-    <row r="4" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:28">
       <c r="A4" s="3">
         <v>0</v>
       </c>
@@ -840,7 +1452,7 @@
       <c r="AA4" s="3"/>
       <c r="AB4" s="3"/>
     </row>
-    <row r="5" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:47">
       <c r="A5" s="3">
         <v>1</v>
       </c>
@@ -903,7 +1515,7 @@
       <c r="AT5" s="3"/>
       <c r="AU5" s="3"/>
     </row>
-    <row r="6" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:47">
       <c r="A6" s="3">
         <v>2</v>
       </c>
@@ -966,7 +1578,7 @@
       <c r="AT6" s="3"/>
       <c r="AU6" s="3"/>
     </row>
-    <row r="7" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:47">
       <c r="A7" s="3">
         <v>3</v>
       </c>
@@ -1029,7 +1641,7 @@
       <c r="AT7" s="3"/>
       <c r="AU7" s="3"/>
     </row>
-    <row r="8" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:47">
       <c r="A8" s="3">
         <v>4</v>
       </c>
@@ -1092,7 +1704,7 @@
       <c r="AT8" s="3"/>
       <c r="AU8" s="3"/>
     </row>
-    <row r="9" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:47">
       <c r="A9" s="3">
         <v>5</v>
       </c>
@@ -1155,7 +1767,7 @@
       <c r="AT9" s="3"/>
       <c r="AU9" s="3"/>
     </row>
-    <row r="10" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:47">
       <c r="A10" s="3">
         <v>6</v>
       </c>
@@ -1218,7 +1830,7 @@
       <c r="AT10" s="3"/>
       <c r="AU10" s="3"/>
     </row>
-    <row r="11" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:47">
       <c r="A11" s="3">
         <v>7</v>
       </c>
@@ -1226,7 +1838,7 @@
         <v>33</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>19</v>
@@ -1281,15 +1893,15 @@
       <c r="AT11" s="3"/>
       <c r="AU11" s="3"/>
     </row>
-    <row r="12" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:47">
       <c r="A12" s="3">
         <v>8</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>19</v>
@@ -1344,15 +1956,15 @@
       <c r="AT12" s="3"/>
       <c r="AU12" s="3"/>
     </row>
-    <row r="13" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:47">
       <c r="A13" s="3">
         <v>9</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>19</v>
@@ -1407,15 +2019,15 @@
       <c r="AT13" s="3"/>
       <c r="AU13" s="3"/>
     </row>
-    <row r="14" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:47">
       <c r="A14" s="3">
         <v>10</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>19</v>
@@ -1470,15 +2082,15 @@
       <c r="AT14" s="3"/>
       <c r="AU14" s="3"/>
     </row>
-    <row r="15" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:47">
       <c r="A15" s="3">
         <v>11</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>19</v>
@@ -1533,15 +2145,15 @@
       <c r="AT15" s="3"/>
       <c r="AU15" s="3"/>
     </row>
-    <row r="16" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:47">
       <c r="A16" s="3">
         <v>12</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>19</v>
@@ -1596,18 +2208,18 @@
       <c r="AT16" s="3"/>
       <c r="AU16" s="3"/>
     </row>
-    <row r="17" spans="1:16384" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:47">
       <c r="A17" s="3">
         <v>13</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E17" s="3">
         <v>-1</v>
@@ -1659,18 +2271,18 @@
       <c r="AT17" s="3"/>
       <c r="AU17" s="3"/>
     </row>
-    <row r="18" spans="1:16384" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:47">
       <c r="A18" s="3">
         <v>14</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E18" s="3">
         <v>-1</v>
@@ -1722,15 +2334,15 @@
       <c r="AT18" s="3"/>
       <c r="AU18" s="3"/>
     </row>
-    <row r="19" spans="1:16384" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" customFormat="1" spans="1:16384">
       <c r="A19" s="3">
         <v>1000</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D19" s="6">
         <v>-1</v>
@@ -1745,7 +2357,7 @@
         <v>0</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
@@ -18124,7 +18736,7 @@
       <c r="XFC19" s="2"/>
       <c r="XFD19" s="2"/>
     </row>
-    <row r="20" spans="1:16384" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:47">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -18173,7 +18785,7 @@
       <c r="AT20" s="3"/>
       <c r="AU20" s="3"/>
     </row>
-    <row r="21" spans="1:16384" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:47">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -18222,7 +18834,7 @@
       <c r="AT21" s="3"/>
       <c r="AU21" s="3"/>
     </row>
-    <row r="22" spans="1:16384" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:47">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -18271,7 +18883,7 @@
       <c r="AT22" s="3"/>
       <c r="AU22" s="3"/>
     </row>
-    <row r="23" spans="1:16384" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:47">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -18320,7 +18932,7 @@
       <c r="AT23" s="3"/>
       <c r="AU23" s="3"/>
     </row>
-    <row r="24" spans="1:16384" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:47">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -18369,7 +18981,7 @@
       <c r="AT24" s="3"/>
       <c r="AU24" s="3"/>
     </row>
-    <row r="25" spans="1:16384" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:47">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -18418,7 +19030,7 @@
       <c r="AT25" s="3"/>
       <c r="AU25" s="3"/>
     </row>
-    <row r="26" spans="1:16384" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:47">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -18467,7 +19079,7 @@
       <c r="AT26" s="3"/>
       <c r="AU26" s="3"/>
     </row>
-    <row r="27" spans="1:16384" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:47">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -18516,7 +19128,7 @@
       <c r="AT27" s="3"/>
       <c r="AU27" s="3"/>
     </row>
-    <row r="28" spans="1:16384" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:47">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -18565,7 +19177,7 @@
       <c r="AT28" s="3"/>
       <c r="AU28" s="3"/>
     </row>
-    <row r="29" spans="1:16384" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:47">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -18614,7 +19226,7 @@
       <c r="AT29" s="3"/>
       <c r="AU29" s="3"/>
     </row>
-    <row r="30" spans="1:16384" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:47">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -18663,7 +19275,7 @@
       <c r="AT30" s="3"/>
       <c r="AU30" s="3"/>
     </row>
-    <row r="31" spans="1:16384" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:47">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -18712,7 +19324,7 @@
       <c r="AT31" s="3"/>
       <c r="AU31" s="3"/>
     </row>
-    <row r="32" spans="1:16384" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:47">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -18761,7 +19373,7 @@
       <c r="AT32" s="3"/>
       <c r="AU32" s="3"/>
     </row>
-    <row r="33" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:47">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -18810,7 +19422,7 @@
       <c r="AT33" s="3"/>
       <c r="AU33" s="3"/>
     </row>
-    <row r="34" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:47">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -18859,7 +19471,7 @@
       <c r="AT34" s="3"/>
       <c r="AU34" s="3"/>
     </row>
-    <row r="35" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:47">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -18908,7 +19520,7 @@
       <c r="AT35" s="3"/>
       <c r="AU35" s="3"/>
     </row>
-    <row r="36" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:47">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -18957,7 +19569,7 @@
       <c r="AT36" s="3"/>
       <c r="AU36" s="3"/>
     </row>
-    <row r="37" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:47">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -19006,7 +19618,7 @@
       <c r="AT37" s="3"/>
       <c r="AU37" s="3"/>
     </row>
-    <row r="38" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:47">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -19055,7 +19667,7 @@
       <c r="AT38" s="3"/>
       <c r="AU38" s="3"/>
     </row>
-    <row r="39" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:47">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -19104,7 +19716,7 @@
       <c r="AT39" s="3"/>
       <c r="AU39" s="3"/>
     </row>
-    <row r="40" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:47">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -19153,7 +19765,7 @@
       <c r="AT40" s="3"/>
       <c r="AU40" s="3"/>
     </row>
-    <row r="41" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:47">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -19202,7 +19814,7 @@
       <c r="AT41" s="3"/>
       <c r="AU41" s="3"/>
     </row>
-    <row r="42" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:47">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -19251,7 +19863,7 @@
       <c r="AT42" s="3"/>
       <c r="AU42" s="3"/>
     </row>
-    <row r="43" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:47">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
@@ -19300,7 +19912,7 @@
       <c r="AT43" s="3"/>
       <c r="AU43" s="3"/>
     </row>
-    <row r="44" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:47">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
@@ -19349,7 +19961,7 @@
       <c r="AT44" s="3"/>
       <c r="AU44" s="3"/>
     </row>
-    <row r="45" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:47">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
@@ -19398,7 +20010,7 @@
       <c r="AT45" s="3"/>
       <c r="AU45" s="3"/>
     </row>
-    <row r="46" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:47">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -19447,7 +20059,7 @@
       <c r="AT46" s="3"/>
       <c r="AU46" s="3"/>
     </row>
-    <row r="47" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:47">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
@@ -19496,7 +20108,7 @@
       <c r="AT47" s="3"/>
       <c r="AU47" s="3"/>
     </row>
-    <row r="48" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:47">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
@@ -19545,7 +20157,7 @@
       <c r="AT48" s="3"/>
       <c r="AU48" s="3"/>
     </row>
-    <row r="49" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:47">
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
@@ -19594,7 +20206,7 @@
       <c r="AT49" s="3"/>
       <c r="AU49" s="3"/>
     </row>
-    <row r="50" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:47">
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
@@ -19643,7 +20255,7 @@
       <c r="AT50" s="3"/>
       <c r="AU50" s="3"/>
     </row>
-    <row r="51" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:47">
       <c r="A51" s="3"/>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
@@ -19692,7 +20304,7 @@
       <c r="AT51" s="3"/>
       <c r="AU51" s="3"/>
     </row>
-    <row r="52" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:47">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
@@ -19741,7 +20353,7 @@
       <c r="AT52" s="3"/>
       <c r="AU52" s="3"/>
     </row>
-    <row r="53" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:47">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
@@ -19790,7 +20402,7 @@
       <c r="AT53" s="3"/>
       <c r="AU53" s="3"/>
     </row>
-    <row r="54" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:47">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
@@ -19839,7 +20451,7 @@
       <c r="AT54" s="3"/>
       <c r="AU54" s="3"/>
     </row>
-    <row r="55" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:47">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
@@ -19888,7 +20500,7 @@
       <c r="AT55" s="3"/>
       <c r="AU55" s="3"/>
     </row>
-    <row r="56" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:47">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
@@ -19937,7 +20549,7 @@
       <c r="AT56" s="3"/>
       <c r="AU56" s="3"/>
     </row>
-    <row r="57" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:47">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
@@ -19986,7 +20598,7 @@
       <c r="AT57" s="3"/>
       <c r="AU57" s="3"/>
     </row>
-    <row r="58" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:47">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
@@ -20035,7 +20647,7 @@
       <c r="AT58" s="3"/>
       <c r="AU58" s="3"/>
     </row>
-    <row r="59" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:47">
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
@@ -20084,7 +20696,7 @@
       <c r="AT59" s="3"/>
       <c r="AU59" s="3"/>
     </row>
-    <row r="60" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:47">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
@@ -20133,7 +20745,7 @@
       <c r="AT60" s="3"/>
       <c r="AU60" s="3"/>
     </row>
-    <row r="61" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:47">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
@@ -20182,7 +20794,7 @@
       <c r="AT61" s="3"/>
       <c r="AU61" s="3"/>
     </row>
-    <row r="62" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:47">
       <c r="A62" s="3"/>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
@@ -20231,7 +20843,7 @@
       <c r="AT62" s="3"/>
       <c r="AU62" s="3"/>
     </row>
-    <row r="63" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:47">
       <c r="A63" s="3"/>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
@@ -20280,7 +20892,7 @@
       <c r="AT63" s="3"/>
       <c r="AU63" s="3"/>
     </row>
-    <row r="64" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:47">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
@@ -20329,7 +20941,7 @@
       <c r="AT64" s="3"/>
       <c r="AU64" s="3"/>
     </row>
-    <row r="65" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:47">
       <c r="A65" s="3"/>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
@@ -20378,7 +20990,7 @@
       <c r="AT65" s="3"/>
       <c r="AU65" s="3"/>
     </row>
-    <row r="66" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:47">
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
@@ -20427,7 +21039,7 @@
       <c r="AT66" s="3"/>
       <c r="AU66" s="3"/>
     </row>
-    <row r="67" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:47">
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
@@ -20476,7 +21088,7 @@
       <c r="AT67" s="3"/>
       <c r="AU67" s="3"/>
     </row>
-    <row r="68" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:47">
       <c r="A68" s="3"/>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
@@ -20525,7 +21137,7 @@
       <c r="AT68" s="3"/>
       <c r="AU68" s="3"/>
     </row>
-    <row r="69" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:47">
       <c r="A69" s="3"/>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
@@ -20574,7 +21186,7 @@
       <c r="AT69" s="3"/>
       <c r="AU69" s="3"/>
     </row>
-    <row r="70" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:47">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
@@ -20623,7 +21235,7 @@
       <c r="AT70" s="3"/>
       <c r="AU70" s="3"/>
     </row>
-    <row r="71" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:47">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
@@ -20672,7 +21284,7 @@
       <c r="AT71" s="3"/>
       <c r="AU71" s="3"/>
     </row>
-    <row r="72" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:47">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
@@ -20721,7 +21333,7 @@
       <c r="AT72" s="3"/>
       <c r="AU72" s="3"/>
     </row>
-    <row r="73" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:47">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
@@ -20770,7 +21382,7 @@
       <c r="AT73" s="3"/>
       <c r="AU73" s="3"/>
     </row>
-    <row r="74" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:47">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
@@ -20819,7 +21431,7 @@
       <c r="AT74" s="3"/>
       <c r="AU74" s="3"/>
     </row>
-    <row r="75" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:47">
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
@@ -20868,7 +21480,7 @@
       <c r="AT75" s="3"/>
       <c r="AU75" s="3"/>
     </row>
-    <row r="76" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:47">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
@@ -20917,7 +21529,7 @@
       <c r="AT76" s="3"/>
       <c r="AU76" s="3"/>
     </row>
-    <row r="77" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:47">
       <c r="A77" s="3"/>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
@@ -20966,7 +21578,7 @@
       <c r="AT77" s="3"/>
       <c r="AU77" s="3"/>
     </row>
-    <row r="78" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:47">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
@@ -21015,7 +21627,7 @@
       <c r="AT78" s="3"/>
       <c r="AU78" s="3"/>
     </row>
-    <row r="79" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:47">
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
@@ -21064,7 +21676,7 @@
       <c r="AT79" s="3"/>
       <c r="AU79" s="3"/>
     </row>
-    <row r="80" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:47">
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
@@ -21113,7 +21725,7 @@
       <c r="AT80" s="3"/>
       <c r="AU80" s="3"/>
     </row>
-    <row r="81" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:47">
       <c r="A81" s="3"/>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
@@ -21162,7 +21774,7 @@
       <c r="AT81" s="3"/>
       <c r="AU81" s="3"/>
     </row>
-    <row r="82" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:47">
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
@@ -21211,7 +21823,7 @@
       <c r="AT82" s="3"/>
       <c r="AU82" s="3"/>
     </row>
-    <row r="83" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:47">
       <c r="A83" s="3"/>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
@@ -21260,7 +21872,7 @@
       <c r="AT83" s="3"/>
       <c r="AU83" s="3"/>
     </row>
-    <row r="84" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:47">
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
@@ -21309,7 +21921,7 @@
       <c r="AT84" s="3"/>
       <c r="AU84" s="3"/>
     </row>
-    <row r="85" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:47">
       <c r="A85" s="3"/>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
@@ -21358,7 +21970,7 @@
       <c r="AT85" s="3"/>
       <c r="AU85" s="3"/>
     </row>
-    <row r="86" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:47">
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
@@ -21407,7 +22019,7 @@
       <c r="AT86" s="3"/>
       <c r="AU86" s="3"/>
     </row>
-    <row r="87" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:47">
       <c r="A87" s="3"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
@@ -21456,7 +22068,7 @@
       <c r="AT87" s="3"/>
       <c r="AU87" s="3"/>
     </row>
-    <row r="88" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:47">
       <c r="A88" s="3"/>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
@@ -21505,7 +22117,7 @@
       <c r="AT88" s="3"/>
       <c r="AU88" s="3"/>
     </row>
-    <row r="89" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:47">
       <c r="A89" s="3"/>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
@@ -21554,7 +22166,7 @@
       <c r="AT89" s="3"/>
       <c r="AU89" s="3"/>
     </row>
-    <row r="90" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:47">
       <c r="A90" s="3"/>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
@@ -21603,7 +22215,7 @@
       <c r="AT90" s="3"/>
       <c r="AU90" s="3"/>
     </row>
-    <row r="91" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:47">
       <c r="A91" s="3"/>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
@@ -21652,7 +22264,7 @@
       <c r="AT91" s="3"/>
       <c r="AU91" s="3"/>
     </row>
-    <row r="92" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:47">
       <c r="A92" s="3"/>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
@@ -21701,7 +22313,7 @@
       <c r="AT92" s="3"/>
       <c r="AU92" s="3"/>
     </row>
-    <row r="93" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:47">
       <c r="A93" s="3"/>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
@@ -21750,7 +22362,7 @@
       <c r="AT93" s="3"/>
       <c r="AU93" s="3"/>
     </row>
-    <row r="94" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:47">
       <c r="A94" s="3"/>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
@@ -21799,7 +22411,7 @@
       <c r="AT94" s="3"/>
       <c r="AU94" s="3"/>
     </row>
-    <row r="95" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:47">
       <c r="A95" s="3"/>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
@@ -21848,7 +22460,7 @@
       <c r="AT95" s="3"/>
       <c r="AU95" s="3"/>
     </row>
-    <row r="96" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:47">
       <c r="A96" s="3"/>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
@@ -21897,7 +22509,7 @@
       <c r="AT96" s="3"/>
       <c r="AU96" s="3"/>
     </row>
-    <row r="97" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:47">
       <c r="A97" s="3"/>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
@@ -21946,7 +22558,7 @@
       <c r="AT97" s="3"/>
       <c r="AU97" s="3"/>
     </row>
-    <row r="98" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:47">
       <c r="A98" s="3"/>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
@@ -21995,7 +22607,7 @@
       <c r="AT98" s="3"/>
       <c r="AU98" s="3"/>
     </row>
-    <row r="99" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:47">
       <c r="A99" s="3"/>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
@@ -22044,7 +22656,7 @@
       <c r="AT99" s="3"/>
       <c r="AU99" s="3"/>
     </row>
-    <row r="100" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:47">
       <c r="A100" s="3"/>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
@@ -22093,7 +22705,7 @@
       <c r="AT100" s="3"/>
       <c r="AU100" s="3"/>
     </row>
-    <row r="101" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:47">
       <c r="A101" s="3"/>
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
@@ -22142,7 +22754,7 @@
       <c r="AT101" s="3"/>
       <c r="AU101" s="3"/>
     </row>
-    <row r="102" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:47">
       <c r="A102" s="3"/>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
@@ -22191,7 +22803,7 @@
       <c r="AT102" s="3"/>
       <c r="AU102" s="3"/>
     </row>
-    <row r="103" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:47">
       <c r="A103" s="3"/>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
@@ -22240,7 +22852,7 @@
       <c r="AT103" s="3"/>
       <c r="AU103" s="3"/>
     </row>
-    <row r="104" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:47">
       <c r="A104" s="3"/>
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
@@ -22289,7 +22901,7 @@
       <c r="AT104" s="3"/>
       <c r="AU104" s="3"/>
     </row>
-    <row r="105" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:47">
       <c r="A105" s="3"/>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
@@ -22338,7 +22950,7 @@
       <c r="AT105" s="3"/>
       <c r="AU105" s="3"/>
     </row>
-    <row r="106" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:47">
       <c r="A106" s="3"/>
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
@@ -22387,7 +22999,7 @@
       <c r="AT106" s="3"/>
       <c r="AU106" s="3"/>
     </row>
-    <row r="107" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:47">
       <c r="A107" s="3"/>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
@@ -22436,7 +23048,7 @@
       <c r="AT107" s="3"/>
       <c r="AU107" s="3"/>
     </row>
-    <row r="108" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:47">
       <c r="A108" s="3"/>
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
@@ -22485,7 +23097,7 @@
       <c r="AT108" s="3"/>
       <c r="AU108" s="3"/>
     </row>
-    <row r="109" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:47">
       <c r="A109" s="3"/>
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
@@ -22534,7 +23146,7 @@
       <c r="AT109" s="3"/>
       <c r="AU109" s="3"/>
     </row>
-    <row r="110" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:47">
       <c r="A110" s="3"/>
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
@@ -22583,7 +23195,7 @@
       <c r="AT110" s="3"/>
       <c r="AU110" s="3"/>
     </row>
-    <row r="111" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:47">
       <c r="A111" s="3"/>
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
@@ -22632,7 +23244,7 @@
       <c r="AT111" s="3"/>
       <c r="AU111" s="3"/>
     </row>
-    <row r="112" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:47">
       <c r="A112" s="3"/>
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
@@ -22681,7 +23293,7 @@
       <c r="AT112" s="3"/>
       <c r="AU112" s="3"/>
     </row>
-    <row r="113" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:47">
       <c r="A113" s="3"/>
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
@@ -22730,7 +23342,7 @@
       <c r="AT113" s="3"/>
       <c r="AU113" s="3"/>
     </row>
-    <row r="114" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:47">
       <c r="A114" s="3"/>
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
@@ -22779,7 +23391,7 @@
       <c r="AT114" s="3"/>
       <c r="AU114" s="3"/>
     </row>
-    <row r="115" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:47">
       <c r="A115" s="3"/>
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
@@ -22828,7 +23440,7 @@
       <c r="AT115" s="3"/>
       <c r="AU115" s="3"/>
     </row>
-    <row r="116" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:47">
       <c r="A116" s="3"/>
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
@@ -22878,8 +23490,8 @@
       <c r="AU116" s="3"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/jyx2/Assets/Mods/SAMPLE/Configs/场景.xlsx
+++ b/jyx2/Assets/Mods/SAMPLE/Configs/场景.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jynew\jyx2\Assets\Mods\SAMPLE\Configs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="12562" windowHeight="12307"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12555" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="3" r:id="rId1"/>
@@ -168,9 +173,6 @@
     <t>将军府</t>
   </si>
   <si>
-    <t>06_jiangjunfu</t>
-  </si>
-  <si>
     <t>罂粟谷</t>
   </si>
   <si>
@@ -241,18 +243,16 @@
   <si>
     <t>WORLDMAP</t>
   </si>
+  <si>
+    <t>06_jiangjunfu</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="26">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -263,19 +263,19 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -284,358 +284,32 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -643,263 +317,21 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="53">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -918,65 +350,21 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="53">
+  <cellStyles count="5">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="普通" xfId="11"/>
-    <cellStyle name="百分比" xfId="12" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="13" builtinId="9"/>
-    <cellStyle name="普通 2" xfId="14"/>
-    <cellStyle name="注释" xfId="15" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="16" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="17" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="18" builtinId="11"/>
-    <cellStyle name="标题" xfId="19" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="20" builtinId="53"/>
-    <cellStyle name="普通 4" xfId="21"/>
-    <cellStyle name="标题 1" xfId="22" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="23" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="24" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="25" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="26" builtinId="44"/>
-    <cellStyle name="输出" xfId="27" builtinId="21"/>
-    <cellStyle name="计算" xfId="28" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="29" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="30" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="31" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="32" builtinId="24"/>
-    <cellStyle name="汇总" xfId="33" builtinId="25"/>
-    <cellStyle name="好" xfId="34" builtinId="26"/>
-    <cellStyle name="适中" xfId="35" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="36" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="37" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="38" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="39" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="40" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="41" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="42" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="43" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="44" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="45" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="46" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="47" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="48" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="49" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="50" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="51" builtinId="52"/>
-    <cellStyle name="普通 3" xfId="52"/>
+    <cellStyle name="普通" xfId="1"/>
+    <cellStyle name="普通 2" xfId="2"/>
+    <cellStyle name="普通 3" xfId="4"/>
+    <cellStyle name="普通 4" xfId="3"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1305,36 +693,36 @@
       <a:lstStyle/>
     </a:spDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD116"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="9.87610619469027" style="2" customWidth="1"/>
-    <col min="3" max="3" width="19.3716814159292" style="2" customWidth="1"/>
-    <col min="4" max="4" width="31.8761061946903" customWidth="1"/>
+    <col min="2" max="2" width="9.875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="19.375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="31.875" customWidth="1"/>
     <col min="5" max="6" width="9" style="2"/>
-    <col min="7" max="7" width="11.1238938053097" style="2" customWidth="1"/>
-    <col min="8" max="8" width="20.1238938053097" style="2" customWidth="1"/>
+    <col min="7" max="7" width="11.125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="20.125" style="2" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="12.75" spans="1:8">
+    <row r="2" spans="1:47" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1360,7 +748,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:28">
+    <row r="3" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
@@ -1406,7 +794,7 @@
       <c r="AA3" s="3"/>
       <c r="AB3" s="3"/>
     </row>
-    <row r="4" spans="1:28">
+    <row r="4" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>0</v>
       </c>
@@ -1452,7 +840,7 @@
       <c r="AA4" s="3"/>
       <c r="AB4" s="3"/>
     </row>
-    <row r="5" spans="1:47">
+    <row r="5" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>1</v>
       </c>
@@ -1515,7 +903,7 @@
       <c r="AT5" s="3"/>
       <c r="AU5" s="3"/>
     </row>
-    <row r="6" spans="1:47">
+    <row r="6" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>2</v>
       </c>
@@ -1578,7 +966,7 @@
       <c r="AT6" s="3"/>
       <c r="AU6" s="3"/>
     </row>
-    <row r="7" spans="1:47">
+    <row r="7" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>3</v>
       </c>
@@ -1641,7 +1029,7 @@
       <c r="AT7" s="3"/>
       <c r="AU7" s="3"/>
     </row>
-    <row r="8" spans="1:47">
+    <row r="8" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>4</v>
       </c>
@@ -1704,7 +1092,7 @@
       <c r="AT8" s="3"/>
       <c r="AU8" s="3"/>
     </row>
-    <row r="9" spans="1:47">
+    <row r="9" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>5</v>
       </c>
@@ -1767,7 +1155,7 @@
       <c r="AT9" s="3"/>
       <c r="AU9" s="3"/>
     </row>
-    <row r="10" spans="1:47">
+    <row r="10" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>6</v>
       </c>
@@ -1775,7 +1163,7 @@
         <v>31</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>19</v>
@@ -1830,15 +1218,15 @@
       <c r="AT10" s="3"/>
       <c r="AU10" s="3"/>
     </row>
-    <row r="11" spans="1:47">
+    <row r="11" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>7</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>19</v>
@@ -1893,15 +1281,15 @@
       <c r="AT11" s="3"/>
       <c r="AU11" s="3"/>
     </row>
-    <row r="12" spans="1:47">
+    <row r="12" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>8</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>19</v>
@@ -1956,15 +1344,15 @@
       <c r="AT12" s="3"/>
       <c r="AU12" s="3"/>
     </row>
-    <row r="13" spans="1:47">
+    <row r="13" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>9</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>19</v>
@@ -2019,15 +1407,15 @@
       <c r="AT13" s="3"/>
       <c r="AU13" s="3"/>
     </row>
-    <row r="14" spans="1:47">
+    <row r="14" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>10</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>19</v>
@@ -2082,15 +1470,15 @@
       <c r="AT14" s="3"/>
       <c r="AU14" s="3"/>
     </row>
-    <row r="15" spans="1:47">
+    <row r="15" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>11</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>19</v>
@@ -2145,15 +1533,15 @@
       <c r="AT15" s="3"/>
       <c r="AU15" s="3"/>
     </row>
-    <row r="16" spans="1:47">
+    <row r="16" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>12</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>19</v>
@@ -2208,18 +1596,18 @@
       <c r="AT16" s="3"/>
       <c r="AU16" s="3"/>
     </row>
-    <row r="17" spans="1:47">
+    <row r="17" spans="1:16384" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>13</v>
       </c>
       <c r="B17" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="D17" s="3" t="s">
         <v>46</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>47</v>
       </c>
       <c r="E17" s="3">
         <v>-1</v>
@@ -2271,18 +1659,18 @@
       <c r="AT17" s="3"/>
       <c r="AU17" s="3"/>
     </row>
-    <row r="18" spans="1:47">
+    <row r="18" spans="1:16384" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>14</v>
       </c>
       <c r="B18" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="D18" s="3" t="s">
         <v>49</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>50</v>
       </c>
       <c r="E18" s="3">
         <v>-1</v>
@@ -2334,15 +1722,15 @@
       <c r="AT18" s="3"/>
       <c r="AU18" s="3"/>
     </row>
-    <row r="19" customFormat="1" spans="1:16384">
+    <row r="19" spans="1:16384" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>1000</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D19" s="6">
         <v>-1</v>
@@ -2357,7 +1745,7 @@
         <v>0</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
@@ -18736,7 +18124,7 @@
       <c r="XFC19" s="2"/>
       <c r="XFD19" s="2"/>
     </row>
-    <row r="20" spans="1:47">
+    <row r="20" spans="1:16384" x14ac:dyDescent="0.2">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -18785,7 +18173,7 @@
       <c r="AT20" s="3"/>
       <c r="AU20" s="3"/>
     </row>
-    <row r="21" spans="1:47">
+    <row r="21" spans="1:16384" x14ac:dyDescent="0.2">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -18834,7 +18222,7 @@
       <c r="AT21" s="3"/>
       <c r="AU21" s="3"/>
     </row>
-    <row r="22" spans="1:47">
+    <row r="22" spans="1:16384" x14ac:dyDescent="0.2">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -18883,7 +18271,7 @@
       <c r="AT22" s="3"/>
       <c r="AU22" s="3"/>
     </row>
-    <row r="23" spans="1:47">
+    <row r="23" spans="1:16384" x14ac:dyDescent="0.2">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -18932,7 +18320,7 @@
       <c r="AT23" s="3"/>
       <c r="AU23" s="3"/>
     </row>
-    <row r="24" spans="1:47">
+    <row r="24" spans="1:16384" x14ac:dyDescent="0.2">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -18981,7 +18369,7 @@
       <c r="AT24" s="3"/>
       <c r="AU24" s="3"/>
     </row>
-    <row r="25" spans="1:47">
+    <row r="25" spans="1:16384" x14ac:dyDescent="0.2">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -19030,7 +18418,7 @@
       <c r="AT25" s="3"/>
       <c r="AU25" s="3"/>
     </row>
-    <row r="26" spans="1:47">
+    <row r="26" spans="1:16384" x14ac:dyDescent="0.2">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -19079,7 +18467,7 @@
       <c r="AT26" s="3"/>
       <c r="AU26" s="3"/>
     </row>
-    <row r="27" spans="1:47">
+    <row r="27" spans="1:16384" x14ac:dyDescent="0.2">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -19128,7 +18516,7 @@
       <c r="AT27" s="3"/>
       <c r="AU27" s="3"/>
     </row>
-    <row r="28" spans="1:47">
+    <row r="28" spans="1:16384" x14ac:dyDescent="0.2">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -19177,7 +18565,7 @@
       <c r="AT28" s="3"/>
       <c r="AU28" s="3"/>
     </row>
-    <row r="29" spans="1:47">
+    <row r="29" spans="1:16384" x14ac:dyDescent="0.2">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -19226,7 +18614,7 @@
       <c r="AT29" s="3"/>
       <c r="AU29" s="3"/>
     </row>
-    <row r="30" spans="1:47">
+    <row r="30" spans="1:16384" x14ac:dyDescent="0.2">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -19275,7 +18663,7 @@
       <c r="AT30" s="3"/>
       <c r="AU30" s="3"/>
     </row>
-    <row r="31" spans="1:47">
+    <row r="31" spans="1:16384" x14ac:dyDescent="0.2">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -19324,7 +18712,7 @@
       <c r="AT31" s="3"/>
       <c r="AU31" s="3"/>
     </row>
-    <row r="32" spans="1:47">
+    <row r="32" spans="1:16384" x14ac:dyDescent="0.2">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -19373,7 +18761,7 @@
       <c r="AT32" s="3"/>
       <c r="AU32" s="3"/>
     </row>
-    <row r="33" spans="1:47">
+    <row r="33" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -19422,7 +18810,7 @@
       <c r="AT33" s="3"/>
       <c r="AU33" s="3"/>
     </row>
-    <row r="34" spans="1:47">
+    <row r="34" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -19471,7 +18859,7 @@
       <c r="AT34" s="3"/>
       <c r="AU34" s="3"/>
     </row>
-    <row r="35" spans="1:47">
+    <row r="35" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -19520,7 +18908,7 @@
       <c r="AT35" s="3"/>
       <c r="AU35" s="3"/>
     </row>
-    <row r="36" spans="1:47">
+    <row r="36" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -19569,7 +18957,7 @@
       <c r="AT36" s="3"/>
       <c r="AU36" s="3"/>
     </row>
-    <row r="37" spans="1:47">
+    <row r="37" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -19618,7 +19006,7 @@
       <c r="AT37" s="3"/>
       <c r="AU37" s="3"/>
     </row>
-    <row r="38" spans="1:47">
+    <row r="38" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -19667,7 +19055,7 @@
       <c r="AT38" s="3"/>
       <c r="AU38" s="3"/>
     </row>
-    <row r="39" spans="1:47">
+    <row r="39" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -19716,7 +19104,7 @@
       <c r="AT39" s="3"/>
       <c r="AU39" s="3"/>
     </row>
-    <row r="40" spans="1:47">
+    <row r="40" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -19765,7 +19153,7 @@
       <c r="AT40" s="3"/>
       <c r="AU40" s="3"/>
     </row>
-    <row r="41" spans="1:47">
+    <row r="41" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -19814,7 +19202,7 @@
       <c r="AT41" s="3"/>
       <c r="AU41" s="3"/>
     </row>
-    <row r="42" spans="1:47">
+    <row r="42" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -19863,7 +19251,7 @@
       <c r="AT42" s="3"/>
       <c r="AU42" s="3"/>
     </row>
-    <row r="43" spans="1:47">
+    <row r="43" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
@@ -19912,7 +19300,7 @@
       <c r="AT43" s="3"/>
       <c r="AU43" s="3"/>
     </row>
-    <row r="44" spans="1:47">
+    <row r="44" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
@@ -19961,7 +19349,7 @@
       <c r="AT44" s="3"/>
       <c r="AU44" s="3"/>
     </row>
-    <row r="45" spans="1:47">
+    <row r="45" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
@@ -20010,7 +19398,7 @@
       <c r="AT45" s="3"/>
       <c r="AU45" s="3"/>
     </row>
-    <row r="46" spans="1:47">
+    <row r="46" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -20059,7 +19447,7 @@
       <c r="AT46" s="3"/>
       <c r="AU46" s="3"/>
     </row>
-    <row r="47" spans="1:47">
+    <row r="47" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
@@ -20108,7 +19496,7 @@
       <c r="AT47" s="3"/>
       <c r="AU47" s="3"/>
     </row>
-    <row r="48" spans="1:47">
+    <row r="48" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
@@ -20157,7 +19545,7 @@
       <c r="AT48" s="3"/>
       <c r="AU48" s="3"/>
     </row>
-    <row r="49" spans="1:47">
+    <row r="49" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
@@ -20206,7 +19594,7 @@
       <c r="AT49" s="3"/>
       <c r="AU49" s="3"/>
     </row>
-    <row r="50" spans="1:47">
+    <row r="50" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
@@ -20255,7 +19643,7 @@
       <c r="AT50" s="3"/>
       <c r="AU50" s="3"/>
     </row>
-    <row r="51" spans="1:47">
+    <row r="51" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A51" s="3"/>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
@@ -20304,7 +19692,7 @@
       <c r="AT51" s="3"/>
       <c r="AU51" s="3"/>
     </row>
-    <row r="52" spans="1:47">
+    <row r="52" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
@@ -20353,7 +19741,7 @@
       <c r="AT52" s="3"/>
       <c r="AU52" s="3"/>
     </row>
-    <row r="53" spans="1:47">
+    <row r="53" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
@@ -20402,7 +19790,7 @@
       <c r="AT53" s="3"/>
       <c r="AU53" s="3"/>
     </row>
-    <row r="54" spans="1:47">
+    <row r="54" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
@@ -20451,7 +19839,7 @@
       <c r="AT54" s="3"/>
       <c r="AU54" s="3"/>
     </row>
-    <row r="55" spans="1:47">
+    <row r="55" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
@@ -20500,7 +19888,7 @@
       <c r="AT55" s="3"/>
       <c r="AU55" s="3"/>
     </row>
-    <row r="56" spans="1:47">
+    <row r="56" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
@@ -20549,7 +19937,7 @@
       <c r="AT56" s="3"/>
       <c r="AU56" s="3"/>
     </row>
-    <row r="57" spans="1:47">
+    <row r="57" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
@@ -20598,7 +19986,7 @@
       <c r="AT57" s="3"/>
       <c r="AU57" s="3"/>
     </row>
-    <row r="58" spans="1:47">
+    <row r="58" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
@@ -20647,7 +20035,7 @@
       <c r="AT58" s="3"/>
       <c r="AU58" s="3"/>
     </row>
-    <row r="59" spans="1:47">
+    <row r="59" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
@@ -20696,7 +20084,7 @@
       <c r="AT59" s="3"/>
       <c r="AU59" s="3"/>
     </row>
-    <row r="60" spans="1:47">
+    <row r="60" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
@@ -20745,7 +20133,7 @@
       <c r="AT60" s="3"/>
       <c r="AU60" s="3"/>
     </row>
-    <row r="61" spans="1:47">
+    <row r="61" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
@@ -20794,7 +20182,7 @@
       <c r="AT61" s="3"/>
       <c r="AU61" s="3"/>
     </row>
-    <row r="62" spans="1:47">
+    <row r="62" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A62" s="3"/>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
@@ -20843,7 +20231,7 @@
       <c r="AT62" s="3"/>
       <c r="AU62" s="3"/>
     </row>
-    <row r="63" spans="1:47">
+    <row r="63" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A63" s="3"/>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
@@ -20892,7 +20280,7 @@
       <c r="AT63" s="3"/>
       <c r="AU63" s="3"/>
     </row>
-    <row r="64" spans="1:47">
+    <row r="64" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
@@ -20941,7 +20329,7 @@
       <c r="AT64" s="3"/>
       <c r="AU64" s="3"/>
     </row>
-    <row r="65" spans="1:47">
+    <row r="65" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A65" s="3"/>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
@@ -20990,7 +20378,7 @@
       <c r="AT65" s="3"/>
       <c r="AU65" s="3"/>
     </row>
-    <row r="66" spans="1:47">
+    <row r="66" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
@@ -21039,7 +20427,7 @@
       <c r="AT66" s="3"/>
       <c r="AU66" s="3"/>
     </row>
-    <row r="67" spans="1:47">
+    <row r="67" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
@@ -21088,7 +20476,7 @@
       <c r="AT67" s="3"/>
       <c r="AU67" s="3"/>
     </row>
-    <row r="68" spans="1:47">
+    <row r="68" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A68" s="3"/>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
@@ -21137,7 +20525,7 @@
       <c r="AT68" s="3"/>
       <c r="AU68" s="3"/>
     </row>
-    <row r="69" spans="1:47">
+    <row r="69" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A69" s="3"/>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
@@ -21186,7 +20574,7 @@
       <c r="AT69" s="3"/>
       <c r="AU69" s="3"/>
     </row>
-    <row r="70" spans="1:47">
+    <row r="70" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
@@ -21235,7 +20623,7 @@
       <c r="AT70" s="3"/>
       <c r="AU70" s="3"/>
     </row>
-    <row r="71" spans="1:47">
+    <row r="71" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
@@ -21284,7 +20672,7 @@
       <c r="AT71" s="3"/>
       <c r="AU71" s="3"/>
     </row>
-    <row r="72" spans="1:47">
+    <row r="72" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
@@ -21333,7 +20721,7 @@
       <c r="AT72" s="3"/>
       <c r="AU72" s="3"/>
     </row>
-    <row r="73" spans="1:47">
+    <row r="73" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
@@ -21382,7 +20770,7 @@
       <c r="AT73" s="3"/>
       <c r="AU73" s="3"/>
     </row>
-    <row r="74" spans="1:47">
+    <row r="74" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
@@ -21431,7 +20819,7 @@
       <c r="AT74" s="3"/>
       <c r="AU74" s="3"/>
     </row>
-    <row r="75" spans="1:47">
+    <row r="75" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
@@ -21480,7 +20868,7 @@
       <c r="AT75" s="3"/>
       <c r="AU75" s="3"/>
     </row>
-    <row r="76" spans="1:47">
+    <row r="76" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
@@ -21529,7 +20917,7 @@
       <c r="AT76" s="3"/>
       <c r="AU76" s="3"/>
     </row>
-    <row r="77" spans="1:47">
+    <row r="77" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A77" s="3"/>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
@@ -21578,7 +20966,7 @@
       <c r="AT77" s="3"/>
       <c r="AU77" s="3"/>
     </row>
-    <row r="78" spans="1:47">
+    <row r="78" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
@@ -21627,7 +21015,7 @@
       <c r="AT78" s="3"/>
       <c r="AU78" s="3"/>
     </row>
-    <row r="79" spans="1:47">
+    <row r="79" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
@@ -21676,7 +21064,7 @@
       <c r="AT79" s="3"/>
       <c r="AU79" s="3"/>
     </row>
-    <row r="80" spans="1:47">
+    <row r="80" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
@@ -21725,7 +21113,7 @@
       <c r="AT80" s="3"/>
       <c r="AU80" s="3"/>
     </row>
-    <row r="81" spans="1:47">
+    <row r="81" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A81" s="3"/>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
@@ -21774,7 +21162,7 @@
       <c r="AT81" s="3"/>
       <c r="AU81" s="3"/>
     </row>
-    <row r="82" spans="1:47">
+    <row r="82" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
@@ -21823,7 +21211,7 @@
       <c r="AT82" s="3"/>
       <c r="AU82" s="3"/>
     </row>
-    <row r="83" spans="1:47">
+    <row r="83" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A83" s="3"/>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
@@ -21872,7 +21260,7 @@
       <c r="AT83" s="3"/>
       <c r="AU83" s="3"/>
     </row>
-    <row r="84" spans="1:47">
+    <row r="84" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
@@ -21921,7 +21309,7 @@
       <c r="AT84" s="3"/>
       <c r="AU84" s="3"/>
     </row>
-    <row r="85" spans="1:47">
+    <row r="85" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A85" s="3"/>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
@@ -21970,7 +21358,7 @@
       <c r="AT85" s="3"/>
       <c r="AU85" s="3"/>
     </row>
-    <row r="86" spans="1:47">
+    <row r="86" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
@@ -22019,7 +21407,7 @@
       <c r="AT86" s="3"/>
       <c r="AU86" s="3"/>
     </row>
-    <row r="87" spans="1:47">
+    <row r="87" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A87" s="3"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
@@ -22068,7 +21456,7 @@
       <c r="AT87" s="3"/>
       <c r="AU87" s="3"/>
     </row>
-    <row r="88" spans="1:47">
+    <row r="88" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A88" s="3"/>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
@@ -22117,7 +21505,7 @@
       <c r="AT88" s="3"/>
       <c r="AU88" s="3"/>
     </row>
-    <row r="89" spans="1:47">
+    <row r="89" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A89" s="3"/>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
@@ -22166,7 +21554,7 @@
       <c r="AT89" s="3"/>
       <c r="AU89" s="3"/>
     </row>
-    <row r="90" spans="1:47">
+    <row r="90" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A90" s="3"/>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
@@ -22215,7 +21603,7 @@
       <c r="AT90" s="3"/>
       <c r="AU90" s="3"/>
     </row>
-    <row r="91" spans="1:47">
+    <row r="91" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A91" s="3"/>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
@@ -22264,7 +21652,7 @@
       <c r="AT91" s="3"/>
       <c r="AU91" s="3"/>
     </row>
-    <row r="92" spans="1:47">
+    <row r="92" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A92" s="3"/>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
@@ -22313,7 +21701,7 @@
       <c r="AT92" s="3"/>
       <c r="AU92" s="3"/>
     </row>
-    <row r="93" spans="1:47">
+    <row r="93" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A93" s="3"/>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
@@ -22362,7 +21750,7 @@
       <c r="AT93" s="3"/>
       <c r="AU93" s="3"/>
     </row>
-    <row r="94" spans="1:47">
+    <row r="94" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A94" s="3"/>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
@@ -22411,7 +21799,7 @@
       <c r="AT94" s="3"/>
       <c r="AU94" s="3"/>
     </row>
-    <row r="95" spans="1:47">
+    <row r="95" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A95" s="3"/>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
@@ -22460,7 +21848,7 @@
       <c r="AT95" s="3"/>
       <c r="AU95" s="3"/>
     </row>
-    <row r="96" spans="1:47">
+    <row r="96" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A96" s="3"/>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
@@ -22509,7 +21897,7 @@
       <c r="AT96" s="3"/>
       <c r="AU96" s="3"/>
     </row>
-    <row r="97" spans="1:47">
+    <row r="97" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A97" s="3"/>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
@@ -22558,7 +21946,7 @@
       <c r="AT97" s="3"/>
       <c r="AU97" s="3"/>
     </row>
-    <row r="98" spans="1:47">
+    <row r="98" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A98" s="3"/>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
@@ -22607,7 +21995,7 @@
       <c r="AT98" s="3"/>
       <c r="AU98" s="3"/>
     </row>
-    <row r="99" spans="1:47">
+    <row r="99" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A99" s="3"/>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
@@ -22656,7 +22044,7 @@
       <c r="AT99" s="3"/>
       <c r="AU99" s="3"/>
     </row>
-    <row r="100" spans="1:47">
+    <row r="100" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A100" s="3"/>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
@@ -22705,7 +22093,7 @@
       <c r="AT100" s="3"/>
       <c r="AU100" s="3"/>
     </row>
-    <row r="101" spans="1:47">
+    <row r="101" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A101" s="3"/>
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
@@ -22754,7 +22142,7 @@
       <c r="AT101" s="3"/>
       <c r="AU101" s="3"/>
     </row>
-    <row r="102" spans="1:47">
+    <row r="102" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A102" s="3"/>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
@@ -22803,7 +22191,7 @@
       <c r="AT102" s="3"/>
       <c r="AU102" s="3"/>
     </row>
-    <row r="103" spans="1:47">
+    <row r="103" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A103" s="3"/>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
@@ -22852,7 +22240,7 @@
       <c r="AT103" s="3"/>
       <c r="AU103" s="3"/>
     </row>
-    <row r="104" spans="1:47">
+    <row r="104" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A104" s="3"/>
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
@@ -22901,7 +22289,7 @@
       <c r="AT104" s="3"/>
       <c r="AU104" s="3"/>
     </row>
-    <row r="105" spans="1:47">
+    <row r="105" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A105" s="3"/>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
@@ -22950,7 +22338,7 @@
       <c r="AT105" s="3"/>
       <c r="AU105" s="3"/>
     </row>
-    <row r="106" spans="1:47">
+    <row r="106" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A106" s="3"/>
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
@@ -22999,7 +22387,7 @@
       <c r="AT106" s="3"/>
       <c r="AU106" s="3"/>
     </row>
-    <row r="107" spans="1:47">
+    <row r="107" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A107" s="3"/>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
@@ -23048,7 +22436,7 @@
       <c r="AT107" s="3"/>
       <c r="AU107" s="3"/>
     </row>
-    <row r="108" spans="1:47">
+    <row r="108" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A108" s="3"/>
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
@@ -23097,7 +22485,7 @@
       <c r="AT108" s="3"/>
       <c r="AU108" s="3"/>
     </row>
-    <row r="109" spans="1:47">
+    <row r="109" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A109" s="3"/>
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
@@ -23146,7 +22534,7 @@
       <c r="AT109" s="3"/>
       <c r="AU109" s="3"/>
     </row>
-    <row r="110" spans="1:47">
+    <row r="110" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A110" s="3"/>
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
@@ -23195,7 +22583,7 @@
       <c r="AT110" s="3"/>
       <c r="AU110" s="3"/>
     </row>
-    <row r="111" spans="1:47">
+    <row r="111" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A111" s="3"/>
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
@@ -23244,7 +22632,7 @@
       <c r="AT111" s="3"/>
       <c r="AU111" s="3"/>
     </row>
-    <row r="112" spans="1:47">
+    <row r="112" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A112" s="3"/>
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
@@ -23293,7 +22681,7 @@
       <c r="AT112" s="3"/>
       <c r="AU112" s="3"/>
     </row>
-    <row r="113" spans="1:47">
+    <row r="113" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A113" s="3"/>
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
@@ -23342,7 +22730,7 @@
       <c r="AT113" s="3"/>
       <c r="AU113" s="3"/>
     </row>
-    <row r="114" spans="1:47">
+    <row r="114" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A114" s="3"/>
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
@@ -23391,7 +22779,7 @@
       <c r="AT114" s="3"/>
       <c r="AU114" s="3"/>
     </row>
-    <row r="115" spans="1:47">
+    <row r="115" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A115" s="3"/>
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
@@ -23440,7 +22828,7 @@
       <c r="AT115" s="3"/>
       <c r="AU115" s="3"/>
     </row>
-    <row r="116" spans="1:47">
+    <row r="116" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A116" s="3"/>
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
@@ -23490,8 +22878,8 @@
       <c r="AU116" s="3"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/jyx2/Assets/Mods/SAMPLE/Configs/场景.xlsx
+++ b/jyx2/Assets/Mods/SAMPLE/Configs/场景.xlsx
@@ -128,12 +128,6 @@
     </r>
   </si>
   <si>
-    <t>莫穿林居</t>
-  </si>
-  <si>
-    <t>00_mochuanlinju</t>
-  </si>
-  <si>
     <t>Leave:1000</t>
   </si>
   <si>
@@ -141,78 +135,6 @@
   </si>
   <si>
     <t>莫桥山庄</t>
-  </si>
-  <si>
-    <t>01_moqiaoshanzhuang</t>
-  </si>
-  <si>
-    <t>万烛书苑</t>
-  </si>
-  <si>
-    <t>02_wanzhushuyuan</t>
-  </si>
-  <si>
-    <t>茶恩寺</t>
-  </si>
-  <si>
-    <t>03_chaensi</t>
-  </si>
-  <si>
-    <t>钟鸣阁</t>
-  </si>
-  <si>
-    <t>04_zhongmingge</t>
-  </si>
-  <si>
-    <t>怡麟楼</t>
-  </si>
-  <si>
-    <t>05_yilinlou</t>
-  </si>
-  <si>
-    <t>将军府</t>
-  </si>
-  <si>
-    <t>罂粟谷</t>
-  </si>
-  <si>
-    <t>07_yingsugu</t>
-  </si>
-  <si>
-    <t>鸽子楼</t>
-  </si>
-  <si>
-    <t>08_gezilou</t>
-  </si>
-  <si>
-    <t>牛头岭</t>
-  </si>
-  <si>
-    <t>09_niutouling</t>
-  </si>
-  <si>
-    <t>滨湖茅庐</t>
-  </si>
-  <si>
-    <t>10_binhumaolu</t>
-  </si>
-  <si>
-    <t>槟榔铺</t>
-  </si>
-  <si>
-    <t>11_binglangpu</t>
-  </si>
-  <si>
-    <t>隋仙药铺</t>
-  </si>
-  <si>
-    <t>12_suixianyaopu</t>
-  </si>
-  <si>
-    <t>野狼谷</t>
-  </si>
-  <si>
-    <t>13_yelanggu</t>
   </si>
   <si>
     <t>Leave:1000,Leave2:14</t>
@@ -238,13 +160,119 @@
     </r>
   </si>
   <si>
-    <t>0_BigMap_2</t>
+    <t>06_jiangjunfu</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000_daditu</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>莫穿林居</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>00_mochuanlinju</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>01_moqiaoshanzhuang</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>万烛书苑</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>02_wanzhushuyuan</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>茶恩寺</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>03_chaensi</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>钟鸣阁</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>04_zhongmingge</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>怡麟楼</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>05_yilinlou</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>将军府</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>罂粟谷</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>07_yingsugu</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>鸽子楼</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>08_gezilou</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛头岭</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>09_niutouling</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>滨湖茅庐</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>10_binhumaolu</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>槟榔铺</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>11_binglangpu</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>隋仙药铺</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>12_suixianyaopu</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>野狼谷</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>13_yelanggu</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>WORLDMAP</t>
-  </si>
-  <si>
-    <t>06_jiangjunfu</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -702,7 +730,7 @@
   <dimension ref="A1:XFD116"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -799,13 +827,13 @@
         <v>0</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E4" s="3">
         <v>15</v>
@@ -817,7 +845,7 @@
         <v>1</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
@@ -845,13 +873,13 @@
         <v>1</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E5" s="3">
         <v>21</v>
@@ -908,13 +936,13 @@
         <v>2</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E6" s="3">
         <v>14</v>
@@ -971,13 +999,13 @@
         <v>3</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E7" s="3">
         <v>-1</v>
@@ -1034,13 +1062,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E8" s="3">
         <v>-1</v>
@@ -1097,13 +1125,13 @@
         <v>5</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E9" s="3">
         <v>-1</v>
@@ -1160,13 +1188,13 @@
         <v>6</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E10" s="3">
         <v>-1</v>
@@ -1223,13 +1251,13 @@
         <v>7</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E11" s="3">
         <v>-1</v>
@@ -1286,13 +1314,13 @@
         <v>8</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E12" s="3">
         <v>-1</v>
@@ -1349,13 +1377,13 @@
         <v>9</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E13" s="3">
         <v>-1</v>
@@ -1412,13 +1440,13 @@
         <v>10</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E14" s="3">
         <v>-1</v>
@@ -1475,13 +1503,13 @@
         <v>11</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E15" s="3">
         <v>-1</v>
@@ -1538,13 +1566,13 @@
         <v>12</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E16" s="3">
         <v>-1</v>
@@ -1601,13 +1629,13 @@
         <v>13</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="E17" s="3">
         <v>-1</v>
@@ -1664,13 +1692,13 @@
         <v>14</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="E18" s="3">
         <v>-1</v>
@@ -1727,10 +1755,10 @@
         <v>1000</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="D19" s="6">
         <v>-1</v>
@@ -1745,7 +1773,7 @@
         <v>0</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>

--- a/jyx2/Assets/Mods/SAMPLE/Configs/场景.xlsx
+++ b/jyx2/Assets/Mods/SAMPLE/Configs/场景.xlsx
@@ -774,7 +774,7 @@
   <dimension ref="A1:XFD119"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>

--- a/jyx2/Assets/Mods/SAMPLE/Configs/场景.xlsx
+++ b/jyx2/Assets/Mods/SAMPLE/Configs/场景.xlsx
@@ -774,7 +774,7 @@
   <dimension ref="A1:XFD119"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -886,7 +886,7 @@
         <v>-1</v>
       </c>
       <c r="G4" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>18</v>
@@ -932,7 +932,7 @@
         <v>-1</v>
       </c>
       <c r="G5" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
@@ -995,7 +995,7 @@
         <v>-1</v>
       </c>
       <c r="G6" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
@@ -1058,7 +1058,7 @@
         <v>-1</v>
       </c>
       <c r="G7" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
@@ -1121,7 +1121,7 @@
         <v>-1</v>
       </c>
       <c r="G8" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
@@ -1184,7 +1184,7 @@
         <v>-1</v>
       </c>
       <c r="G9" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
@@ -1247,7 +1247,7 @@
         <v>-1</v>
       </c>
       <c r="G10" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -1310,7 +1310,7 @@
         <v>-1</v>
       </c>
       <c r="G11" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
@@ -1373,7 +1373,7 @@
         <v>-1</v>
       </c>
       <c r="G12" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
@@ -1436,7 +1436,7 @@
         <v>-1</v>
       </c>
       <c r="G13" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
@@ -1499,7 +1499,7 @@
         <v>-1</v>
       </c>
       <c r="G14" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
@@ -1562,7 +1562,7 @@
         <v>-1</v>
       </c>
       <c r="G15" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
@@ -1625,7 +1625,7 @@
         <v>-1</v>
       </c>
       <c r="G16" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
@@ -1688,7 +1688,7 @@
         <v>-1</v>
       </c>
       <c r="G17" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
@@ -1751,7 +1751,7 @@
         <v>-1</v>
       </c>
       <c r="G18" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
@@ -1814,7 +1814,7 @@
         <v>-1</v>
       </c>
       <c r="G19" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
@@ -18214,7 +18214,7 @@
         <v>-1</v>
       </c>
       <c r="G20" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
@@ -34614,7 +34614,7 @@
         <v>-1</v>
       </c>
       <c r="G21" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
